--- a/capiq_data/in_process_data/IQ291896.xlsx
+++ b/capiq_data/in_process_data/IQ291896.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{165CCEDE-BD2D-40C7-9AF0-9B60854BC254}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01146DBF-E60B-4763-8EB4-18AE9B277F5D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="98" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"9520a498-437e-460a-9d2e-ee79d56711e2"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"88ecd601-9bff-4fc0-b8da-12aa627ca628"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,40 +41,40 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$42</definedName>
-    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$42</definedName>
-    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$42</definedName>
-    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$42</definedName>
-    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$42</definedName>
-    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$42</definedName>
-    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$42</definedName>
-    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$42</definedName>
-    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$42</definedName>
-    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$42</definedName>
-    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$42</definedName>
-    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$42</definedName>
-    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$42</definedName>
-    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$42</definedName>
-    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$42</definedName>
-    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$42</definedName>
-    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$42</definedName>
-    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$42</definedName>
-    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$42</definedName>
-    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$42</definedName>
-    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$42</definedName>
-    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$42</definedName>
-    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$42</definedName>
-    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$42</definedName>
-    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$42</definedName>
-    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$42</definedName>
-    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$42</definedName>
+    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$82</definedName>
+    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$82</definedName>
+    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$82</definedName>
+    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$82</definedName>
+    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$82</definedName>
+    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$82</definedName>
+    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$82</definedName>
+    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$82</definedName>
+    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$82</definedName>
+    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$82</definedName>
+    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$82</definedName>
+    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$82</definedName>
+    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$82</definedName>
+    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$82</definedName>
+    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$82</definedName>
+    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$82</definedName>
+    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$82</definedName>
+    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$82</definedName>
+    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$82</definedName>
+    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$82</definedName>
+    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$82</definedName>
+    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$82</definedName>
+    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$82</definedName>
+    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$82</definedName>
+    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$82</definedName>
+    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$82</definedName>
+    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$82</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>Date</t>
   </si>
@@ -173,6 +173,126 @@
   </si>
   <si>
     <t>IQ_NI</t>
+  </si>
+  <si>
+    <t>FQ42000</t>
+  </si>
+  <si>
+    <t>FQ12001</t>
+  </si>
+  <si>
+    <t>FQ22001</t>
+  </si>
+  <si>
+    <t>FQ32001</t>
+  </si>
+  <si>
+    <t>FQ42001</t>
+  </si>
+  <si>
+    <t>FQ12002</t>
+  </si>
+  <si>
+    <t>FQ22002</t>
+  </si>
+  <si>
+    <t>FQ32002</t>
+  </si>
+  <si>
+    <t>FQ42002</t>
+  </si>
+  <si>
+    <t>FQ12003</t>
+  </si>
+  <si>
+    <t>FQ22003</t>
+  </si>
+  <si>
+    <t>FQ32003</t>
+  </si>
+  <si>
+    <t>FQ42003</t>
+  </si>
+  <si>
+    <t>FQ12004</t>
+  </si>
+  <si>
+    <t>FQ22004</t>
+  </si>
+  <si>
+    <t>FQ32004</t>
+  </si>
+  <si>
+    <t>FQ42004</t>
+  </si>
+  <si>
+    <t>FQ12005</t>
+  </si>
+  <si>
+    <t>FQ22005</t>
+  </si>
+  <si>
+    <t>FQ32005</t>
+  </si>
+  <si>
+    <t>FQ42005</t>
+  </si>
+  <si>
+    <t>FQ12006</t>
+  </si>
+  <si>
+    <t>FQ22006</t>
+  </si>
+  <si>
+    <t>FQ32006</t>
+  </si>
+  <si>
+    <t>FQ42006</t>
+  </si>
+  <si>
+    <t>FQ12007</t>
+  </si>
+  <si>
+    <t>FQ22007</t>
+  </si>
+  <si>
+    <t>FQ32007</t>
+  </si>
+  <si>
+    <t>FQ42007</t>
+  </si>
+  <si>
+    <t>FQ12008</t>
+  </si>
+  <si>
+    <t>FQ22008</t>
+  </si>
+  <si>
+    <t>FQ32008</t>
+  </si>
+  <si>
+    <t>FQ42008</t>
+  </si>
+  <si>
+    <t>FQ12009</t>
+  </si>
+  <si>
+    <t>FQ22009</t>
+  </si>
+  <si>
+    <t>FQ32009</t>
+  </si>
+  <si>
+    <t>FQ42009</t>
+  </si>
+  <si>
+    <t>FQ12010</t>
+  </si>
+  <si>
+    <t>FQ22010</t>
+  </si>
+  <si>
+    <t>FQ32010</t>
   </si>
   <si>
     <t>FQ42010</t>
@@ -639,7 +759,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,37 +853,37 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2">
-        <v>157.1</v>
+        <v>125.5</v>
       </c>
       <c r="D2">
-        <v>862.4</v>
+        <v>528.4</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>862.4</v>
+        <v>528.4</v>
       </c>
       <c r="G2">
-        <v>32720.6</v>
+        <v>8792.7999999999993</v>
       </c>
       <c r="H2">
-        <v>83843.899999999994</v>
+        <v>36022.300000000003</v>
       </c>
       <c r="I2">
-        <v>64195.7</v>
+        <v>22827.9</v>
       </c>
       <c r="J2">
-        <v>4027.9</v>
+        <v>3972.1</v>
       </c>
       <c r="K2">
-        <v>6835.5</v>
+        <v>5334.5</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -772,164 +892,164 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>71895.199999999997</v>
+        <v>28221.7</v>
       </c>
       <c r="O2">
-        <v>77013.600000000006</v>
+        <v>33560.1</v>
       </c>
       <c r="P2">
-        <v>11737.8</v>
+        <v>9369.7000000000007</v>
       </c>
       <c r="Q2">
-        <v>-671.5</v>
+        <v>926</v>
       </c>
       <c r="R2">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="S2">
-        <v>12800</v>
+        <v>9466</v>
       </c>
       <c r="T2">
-        <v>6830.3</v>
+        <v>2462.1999999999998</v>
       </c>
       <c r="U2">
-        <v>2978.1</v>
+        <v>2837.6</v>
       </c>
       <c r="V2">
-        <v>-129.19999999999999</v>
+        <v>180</v>
       </c>
       <c r="W2">
-        <v>-68.599999999999994</v>
+        <v>-31.1</v>
       </c>
       <c r="X2">
-        <v>3461.4</v>
+        <v>852.9</v>
       </c>
       <c r="Y2">
-        <v>48.1</v>
+        <v>13.1</v>
       </c>
       <c r="Z2">
-        <v>125.6</v>
+        <v>296.3</v>
       </c>
       <c r="AA2">
-        <v>157.1</v>
+        <v>125.5</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>151</v>
+        <v>127.2</v>
       </c>
       <c r="D3">
-        <v>882.9</v>
+        <v>532.6</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>882.9</v>
+        <v>532.6</v>
       </c>
       <c r="G3">
-        <v>39686.6</v>
+        <v>5892.2</v>
       </c>
       <c r="H3">
-        <v>92679.2</v>
+        <v>38197.800000000003</v>
       </c>
       <c r="I3">
-        <v>71075.399999999994</v>
+        <v>23591.9</v>
       </c>
       <c r="J3">
-        <v>4705.7</v>
+        <v>5192.7</v>
       </c>
       <c r="K3">
-        <v>8618.6</v>
+        <v>5529.5</v>
       </c>
       <c r="L3">
-        <v>-2275</v>
+        <v>-2078.6</v>
       </c>
       <c r="M3">
-        <v>-208</v>
+        <v>-0.2</v>
       </c>
       <c r="N3">
-        <v>79694</v>
+        <v>29137.9</v>
       </c>
       <c r="O3">
-        <v>85751</v>
+        <v>35625.199999999997</v>
       </c>
       <c r="P3">
-        <v>13324.3</v>
+        <v>10722.2</v>
       </c>
       <c r="Q3">
-        <v>774.8</v>
+        <v>-742.5</v>
       </c>
       <c r="R3">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="S3">
-        <v>13000</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>6928.2</v>
+        <v>2572.6</v>
       </c>
       <c r="U3">
-        <v>3683</v>
+        <v>1838.5</v>
       </c>
       <c r="V3">
-        <v>72.900000000000006</v>
+        <v>115</v>
       </c>
       <c r="W3">
-        <v>-68.599999999999994</v>
+        <v>-36</v>
       </c>
       <c r="X3">
-        <v>8684.6</v>
+        <v>2057.3000000000002</v>
       </c>
       <c r="Y3">
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>-3530.2</v>
+        <v>-3284.8</v>
       </c>
       <c r="AA3">
-        <v>151</v>
+        <v>127.2</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4">
-        <v>152</v>
+        <v>131.30000000000001</v>
       </c>
       <c r="D4">
-        <v>934.8</v>
+        <v>556.1</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>934.8</v>
+        <v>556.1</v>
       </c>
       <c r="G4">
-        <v>43706.7</v>
+        <v>6781.8</v>
       </c>
       <c r="H4">
-        <v>97398.3</v>
+        <v>36183.800000000003</v>
       </c>
       <c r="I4">
-        <v>77500.899999999994</v>
+        <v>22846.2</v>
       </c>
       <c r="J4">
-        <v>4598</v>
+        <v>6257.6</v>
       </c>
       <c r="K4">
-        <v>6306.8</v>
+        <v>3026.9</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -938,81 +1058,81 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>83807.7</v>
+        <v>25897.1</v>
       </c>
       <c r="O4">
-        <v>90372.9</v>
+        <v>33522.699999999997</v>
       </c>
       <c r="P4">
-        <v>10904.8</v>
+        <v>9284.5</v>
       </c>
       <c r="Q4">
-        <v>1506.3</v>
+        <v>679</v>
       </c>
       <c r="R4">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="S4">
-        <v>13600</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>7025.4</v>
+        <v>2661.1</v>
       </c>
       <c r="U4">
-        <v>5145.7</v>
+        <v>2580</v>
       </c>
       <c r="V4">
-        <v>490.3</v>
+        <v>353.2</v>
       </c>
       <c r="W4">
-        <v>-68.5</v>
+        <v>-35.5</v>
       </c>
       <c r="X4">
-        <v>4025.2</v>
+        <v>-2235</v>
       </c>
       <c r="Y4">
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>-1729.5</v>
+        <v>3062.2</v>
       </c>
       <c r="AA4">
-        <v>152</v>
+        <v>131.30000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>170.4</v>
+        <v>126.6</v>
       </c>
       <c r="D5">
-        <v>954</v>
+        <v>541.9</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>954</v>
+        <v>541.9</v>
       </c>
       <c r="G5">
-        <v>37986.699999999997</v>
+        <v>8570.9</v>
       </c>
       <c r="H5">
-        <v>96098.2</v>
+        <v>35124.400000000001</v>
       </c>
       <c r="I5">
-        <v>78514</v>
+        <v>22788.5</v>
       </c>
       <c r="J5">
-        <v>4547.7</v>
+        <v>5742.2</v>
       </c>
       <c r="K5">
-        <v>3724.9</v>
+        <v>2496.1</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -1021,81 +1141,81 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>82238.899999999994</v>
+        <v>25305.8</v>
       </c>
       <c r="O5">
-        <v>88945.4</v>
+        <v>32398.6</v>
       </c>
       <c r="P5">
-        <v>8272.6</v>
+        <v>8238.2999999999993</v>
       </c>
       <c r="Q5">
-        <v>-762.5</v>
+        <v>-538.70000000000005</v>
       </c>
       <c r="R5">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="S5">
-        <v>14000</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>7152.8</v>
+        <v>2725.8</v>
       </c>
       <c r="U5">
-        <v>4558.3999999999996</v>
+        <v>3259.8</v>
       </c>
       <c r="V5">
-        <v>-700.2</v>
+        <v>93.8</v>
       </c>
       <c r="W5">
-        <v>-68.400000000000006</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>-2061.6</v>
+        <v>-1173.7</v>
       </c>
       <c r="Y5">
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>-6642.8</v>
+        <v>1388.9</v>
       </c>
       <c r="AA5">
-        <v>170.4</v>
+        <v>126.6</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6">
-        <v>130.19999999999999</v>
+        <v>102.4</v>
       </c>
       <c r="D6">
-        <v>943.1</v>
+        <v>501.5</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>943.1</v>
+        <v>501.5</v>
       </c>
       <c r="G6">
-        <v>38999.1</v>
+        <v>13739.1</v>
       </c>
       <c r="H6">
-        <v>100223.7</v>
+        <v>39671.800000000003</v>
       </c>
       <c r="I6">
-        <v>82677.5</v>
+        <v>25019.3</v>
       </c>
       <c r="J6">
-        <v>4492</v>
+        <v>8325.7000000000007</v>
       </c>
       <c r="K6">
-        <v>3888.2</v>
+        <v>2360.6</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -1104,164 +1224,164 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>86627</v>
+        <v>27389.599999999999</v>
       </c>
       <c r="O6">
-        <v>93106.4</v>
+        <v>36898.300000000003</v>
       </c>
       <c r="P6">
-        <v>8425.1</v>
+        <v>10686.3</v>
       </c>
       <c r="Q6">
-        <v>-21.3</v>
+        <v>906.7</v>
       </c>
       <c r="R6">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="S6">
-        <v>14100</v>
+        <v>9453</v>
       </c>
       <c r="T6">
-        <v>7117.3</v>
+        <v>2773.5</v>
       </c>
       <c r="U6">
-        <v>4436.6000000000004</v>
+        <v>6157.4</v>
       </c>
       <c r="V6">
-        <v>1391.3</v>
+        <v>163.5</v>
       </c>
       <c r="W6">
-        <v>-68.2</v>
+        <v>-35.299999999999997</v>
       </c>
       <c r="X6">
-        <v>5155.3999999999996</v>
+        <v>4609.3999999999996</v>
       </c>
       <c r="Y6">
-        <v>44.9</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>463.5</v>
+        <v>-4691.5</v>
       </c>
       <c r="AA6">
-        <v>130.19999999999999</v>
+        <v>102.4</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7">
-        <v>161.19999999999999</v>
+        <v>127.6</v>
       </c>
       <c r="D7">
-        <v>960.4</v>
+        <v>523.9</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>960.4</v>
+        <v>523.9</v>
       </c>
       <c r="G7">
-        <v>30433.599999999999</v>
+        <v>9412.2999999999993</v>
       </c>
       <c r="H7">
-        <v>91604.3</v>
+        <v>37961.599999999999</v>
       </c>
       <c r="I7">
-        <v>73933</v>
+        <v>21946.799999999999</v>
       </c>
       <c r="J7">
-        <v>4141.2</v>
+        <v>4088</v>
       </c>
       <c r="K7">
-        <v>4581.3999999999996</v>
+        <v>7897.1</v>
       </c>
       <c r="L7">
-        <v>-914.8</v>
+        <v>-4782.7</v>
       </c>
       <c r="M7">
-        <v>-350.9</v>
+        <v>-0.3</v>
       </c>
       <c r="N7">
-        <v>78564.5</v>
+        <v>29847.5</v>
       </c>
       <c r="O7">
-        <v>84381.1</v>
+        <v>35129.9</v>
       </c>
       <c r="P7">
-        <v>8766.6</v>
+        <v>11985.1</v>
       </c>
       <c r="Q7">
-        <v>-35</v>
+        <v>-1057.5</v>
       </c>
       <c r="R7">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="S7">
-        <v>13900</v>
+        <v>0</v>
       </c>
       <c r="T7">
-        <v>7223.2</v>
+        <v>2831.7</v>
       </c>
       <c r="U7">
-        <v>4290.3</v>
+        <v>1871.7</v>
       </c>
       <c r="V7">
-        <v>757.6</v>
+        <v>77.5</v>
       </c>
       <c r="W7">
-        <v>-67.5</v>
+        <v>-38.299999999999997</v>
       </c>
       <c r="X7">
-        <v>-8787.2999999999993</v>
+        <v>-1846.1</v>
       </c>
       <c r="Y7">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="Z7">
-        <v>-2743.1</v>
+        <v>240.7</v>
       </c>
       <c r="AA7">
-        <v>161.19999999999999</v>
+        <v>127.6</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>179.6</v>
+        <v>126.8</v>
       </c>
       <c r="D8">
-        <v>983.5</v>
+        <v>535.70000000000005</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>983.5</v>
+        <v>535.70000000000005</v>
       </c>
       <c r="G8">
-        <v>33888.400000000001</v>
+        <v>10904.6</v>
       </c>
       <c r="H8">
-        <v>94455.9</v>
+        <v>37801.4</v>
       </c>
       <c r="I8">
-        <v>76995.899999999994</v>
+        <v>22923.5</v>
       </c>
       <c r="J8">
-        <v>4013.5</v>
+        <v>5462.4</v>
       </c>
       <c r="K8">
-        <v>3876.9</v>
+        <v>4828.2</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -1270,81 +1390,81 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>80941.899999999994</v>
+        <v>27768.1</v>
       </c>
       <c r="O8">
-        <v>87065.600000000006</v>
+        <v>34888.1</v>
       </c>
       <c r="P8">
-        <v>7933.5</v>
+        <v>10290.6</v>
       </c>
       <c r="Q8">
-        <v>-686</v>
+        <v>835.1</v>
       </c>
       <c r="R8">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="S8">
-        <v>14000</v>
+        <v>0</v>
       </c>
       <c r="T8">
-        <v>7390.3</v>
+        <v>2913.3</v>
       </c>
       <c r="U8">
-        <v>3616.8</v>
+        <v>2903.5</v>
       </c>
       <c r="V8">
-        <v>-218.3</v>
+        <v>242.6</v>
       </c>
       <c r="W8">
-        <v>-68.599999999999994</v>
+        <v>-38.200000000000003</v>
       </c>
       <c r="X8">
-        <v>2909.3</v>
+        <v>-782.5</v>
       </c>
       <c r="Y8">
-        <v>43.1</v>
+        <v>0</v>
       </c>
       <c r="Z8">
-        <v>2902.1</v>
+        <v>2443.6</v>
       </c>
       <c r="AA8">
-        <v>179.6</v>
+        <v>126.8</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>178.8</v>
+        <v>96.4</v>
       </c>
       <c r="D9">
-        <v>962.5</v>
+        <v>475.3</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>962.5</v>
+        <v>475.3</v>
       </c>
       <c r="G9">
-        <v>31814.5</v>
+        <v>11606.4</v>
       </c>
       <c r="H9">
-        <v>93632.5</v>
+        <v>39670.5</v>
       </c>
       <c r="I9">
-        <v>76931.600000000006</v>
+        <v>24373.1</v>
       </c>
       <c r="J9">
-        <v>4273.5</v>
+        <v>6325.7</v>
       </c>
       <c r="K9">
-        <v>1997.3</v>
+        <v>4507.3</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -1353,81 +1473,81 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>78994.7</v>
+        <v>28885.1</v>
       </c>
       <c r="O9">
-        <v>86100.3</v>
+        <v>36725.4</v>
       </c>
       <c r="P9">
-        <v>6313</v>
+        <v>10833</v>
       </c>
       <c r="Q9">
-        <v>-197.6</v>
+        <v>-418</v>
       </c>
       <c r="R9">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="S9">
-        <v>14200</v>
+        <v>0</v>
       </c>
       <c r="T9">
-        <v>7532.2</v>
+        <v>2945.1</v>
       </c>
       <c r="U9">
-        <v>3970.1</v>
+        <v>3487.1</v>
       </c>
       <c r="V9">
-        <v>251.9</v>
+        <v>186.3</v>
       </c>
       <c r="W9">
-        <v>-73.400000000000006</v>
+        <v>-38.1</v>
       </c>
       <c r="X9">
-        <v>-1173.5</v>
+        <v>1894.7</v>
       </c>
       <c r="Y9">
-        <v>42.2</v>
+        <v>0</v>
       </c>
       <c r="Z9">
-        <v>-782.2</v>
+        <v>-2748.5</v>
       </c>
       <c r="AA9">
-        <v>178.8</v>
+        <v>96.4</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10">
-        <v>167.7</v>
+        <v>96.3</v>
       </c>
       <c r="D10">
-        <v>964.7</v>
+        <v>498.7</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>964.7</v>
+        <v>498.7</v>
       </c>
       <c r="G10">
-        <v>34959.199999999997</v>
+        <v>12644.4</v>
       </c>
       <c r="H10">
-        <v>97463.8</v>
+        <v>39478.199999999997</v>
       </c>
       <c r="I10">
-        <v>81407.8</v>
+        <v>26062.1</v>
       </c>
       <c r="J10">
-        <v>3253.6</v>
+        <v>5208.8</v>
       </c>
       <c r="K10">
-        <v>2462.9</v>
+        <v>3380.1</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -1436,164 +1556,164 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>84740.800000000003</v>
+        <v>29464.7</v>
       </c>
       <c r="O10">
-        <v>89936.8</v>
+        <v>36478.400000000001</v>
       </c>
       <c r="P10">
-        <v>6567.3</v>
+        <v>8604.7000000000007</v>
       </c>
       <c r="Q10">
-        <v>356</v>
+        <v>720.3</v>
       </c>
       <c r="R10">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="S10">
-        <v>14200</v>
+        <v>9317</v>
       </c>
       <c r="T10">
-        <v>7527</v>
+        <v>2999.8</v>
       </c>
       <c r="U10">
-        <v>3778.1</v>
+        <v>3637</v>
       </c>
       <c r="V10">
-        <v>23.2</v>
+        <v>175.5</v>
       </c>
       <c r="W10">
-        <v>-144.80000000000001</v>
+        <v>-38.200000000000003</v>
       </c>
       <c r="X10">
-        <v>3978.6</v>
+        <v>-509.3</v>
       </c>
       <c r="Y10">
-        <v>41.2</v>
+        <v>15.8</v>
       </c>
       <c r="Z10">
-        <v>-1424.6</v>
+        <v>1085.9000000000001</v>
       </c>
       <c r="AA10">
-        <v>167.7</v>
+        <v>96.3</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11">
-        <v>164</v>
+        <v>94.7</v>
       </c>
       <c r="D11">
-        <v>971.4</v>
+        <v>491.3</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>971.4</v>
+        <v>491.3</v>
       </c>
       <c r="G11">
-        <v>32401.5</v>
+        <v>8907.2999999999993</v>
       </c>
       <c r="H11">
-        <v>93156.800000000003</v>
+        <v>36449.699999999997</v>
       </c>
       <c r="I11">
-        <v>75822.100000000006</v>
+        <v>24482.400000000001</v>
       </c>
       <c r="J11">
-        <v>3837.3</v>
+        <v>4127.2</v>
       </c>
       <c r="K11">
-        <v>3785.4</v>
+        <v>3478.6</v>
       </c>
       <c r="L11">
-        <v>-209.6</v>
+        <v>-2332.1</v>
       </c>
       <c r="M11">
-        <v>-201</v>
+        <v>-0.2</v>
       </c>
       <c r="N11">
-        <v>79667.600000000006</v>
+        <v>27962.1</v>
       </c>
       <c r="O11">
-        <v>85544.7</v>
+        <v>33423.599999999999</v>
       </c>
       <c r="P11">
-        <v>7662.9</v>
+        <v>7605.8</v>
       </c>
       <c r="Q11">
-        <v>20.8</v>
+        <v>-1316.5</v>
       </c>
       <c r="R11">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="S11">
-        <v>14200</v>
+        <v>9336</v>
       </c>
       <c r="T11">
-        <v>7612.1</v>
+        <v>3026.1</v>
       </c>
       <c r="U11">
-        <v>2875</v>
+        <v>2232.4</v>
       </c>
       <c r="V11">
-        <v>312.5</v>
+        <v>73.5</v>
       </c>
       <c r="W11">
-        <v>-1.1000000000000001</v>
+        <v>-37.9</v>
       </c>
       <c r="X11">
-        <v>-4667.6000000000004</v>
+        <v>-2722</v>
       </c>
       <c r="Y11">
-        <v>40.200000000000003</v>
+        <v>0</v>
       </c>
       <c r="Z11">
-        <v>1011.8</v>
+        <v>946.4</v>
       </c>
       <c r="AA11">
-        <v>164</v>
+        <v>94.7</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12">
-        <v>191.1</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>1015.5</v>
+        <v>0</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1015.5</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>36323.5</v>
+        <v>11096.6</v>
       </c>
       <c r="H12">
-        <v>97236</v>
+        <v>39071</v>
       </c>
       <c r="I12">
-        <v>76534.899999999994</v>
+        <v>25299.3</v>
       </c>
       <c r="J12">
-        <v>3617.2</v>
+        <v>4740</v>
       </c>
       <c r="K12">
-        <v>6119.2</v>
+        <v>4545.6000000000004</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -1602,81 +1722,81 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>82715.399999999994</v>
+        <v>29846.2</v>
       </c>
       <c r="O12">
-        <v>89511.4</v>
+        <v>36124.9</v>
       </c>
       <c r="P12">
-        <v>9775.5</v>
+        <v>9285.6</v>
       </c>
       <c r="Q12">
-        <v>857.4</v>
+        <v>0</v>
       </c>
       <c r="R12">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="S12">
-        <v>14500</v>
+        <v>8239</v>
       </c>
       <c r="T12">
-        <v>7724.6</v>
+        <v>2946.1</v>
       </c>
       <c r="U12">
-        <v>3762.1</v>
+        <v>2804.9</v>
       </c>
       <c r="V12">
-        <v>-1594.2</v>
+        <v>0</v>
       </c>
       <c r="W12">
-        <v>-70.7</v>
+        <v>0</v>
       </c>
       <c r="X12">
-        <v>4231.1000000000004</v>
+        <v>0</v>
       </c>
       <c r="Y12">
-        <v>39.1</v>
+        <v>0</v>
       </c>
       <c r="Z12">
-        <v>-225.9</v>
+        <v>0</v>
       </c>
       <c r="AA12">
-        <v>191.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>206.5</v>
+        <v>113.8</v>
       </c>
       <c r="D13">
-        <v>1042.2</v>
+        <v>520.70000000000005</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1042.2</v>
+        <v>520.70000000000005</v>
       </c>
       <c r="G13">
-        <v>33619.5</v>
+        <v>10950</v>
       </c>
       <c r="H13">
-        <v>95969.5</v>
+        <v>40744.199999999997</v>
       </c>
       <c r="I13">
-        <v>78161.7</v>
+        <v>25654</v>
       </c>
       <c r="J13">
-        <v>3229.1</v>
+        <v>4653.8</v>
       </c>
       <c r="K13">
-        <v>4488.6000000000004</v>
+        <v>5504.2</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -1685,81 +1805,81 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>82705.899999999994</v>
+        <v>31173.3</v>
       </c>
       <c r="O13">
-        <v>88152.4</v>
+        <v>37743.9</v>
       </c>
       <c r="P13">
-        <v>7755.7</v>
+        <v>10158</v>
       </c>
       <c r="Q13">
-        <v>-1940.2</v>
+        <v>-914.7</v>
       </c>
       <c r="R13">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="S13">
-        <v>14600</v>
+        <v>8094</v>
       </c>
       <c r="T13">
-        <v>7817.1</v>
+        <v>3000.3</v>
       </c>
       <c r="U13">
-        <v>1825.3</v>
+        <v>2262.1</v>
       </c>
       <c r="V13">
-        <v>2242.6</v>
+        <v>344</v>
       </c>
       <c r="W13">
-        <v>-74.5</v>
+        <v>-37.5</v>
       </c>
       <c r="X13">
-        <v>-1989.3</v>
+        <v>1194.4000000000001</v>
       </c>
       <c r="Y13">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="Z13">
-        <v>837.6</v>
+        <v>-1916</v>
       </c>
       <c r="AA13">
-        <v>206.5</v>
+        <v>113.8</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14">
-        <v>169.7</v>
+        <v>129.69999999999999</v>
       </c>
       <c r="D14">
-        <v>1040.2</v>
+        <v>527.5</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1040.2</v>
+        <v>527.5</v>
       </c>
       <c r="G14">
-        <v>39802.400000000001</v>
+        <v>11350.5</v>
       </c>
       <c r="H14">
-        <v>102947.3</v>
+        <v>41450.199999999997</v>
       </c>
       <c r="I14">
-        <v>84098.1</v>
+        <v>26270</v>
       </c>
       <c r="J14">
-        <v>3311</v>
+        <v>5003.2</v>
       </c>
       <c r="K14">
-        <v>4615.8999999999996</v>
+        <v>4599.5</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1768,164 +1888,164 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>89408.6</v>
+        <v>31030.7</v>
       </c>
       <c r="O14">
-        <v>95035.3</v>
+        <v>38394.9</v>
       </c>
       <c r="P14">
-        <v>8598.7999999999993</v>
+        <v>9767.4</v>
       </c>
       <c r="Q14">
-        <v>471.7</v>
+        <v>170.5</v>
       </c>
       <c r="R14">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="S14">
-        <v>14800</v>
+        <v>8056</v>
       </c>
       <c r="T14">
-        <v>7912</v>
+        <v>3055.3</v>
       </c>
       <c r="U14">
-        <v>3192</v>
+        <v>2350.5</v>
       </c>
       <c r="V14">
-        <v>-121.6</v>
+        <v>-108.9</v>
       </c>
       <c r="W14">
-        <v>-74.3</v>
+        <v>-37.4</v>
       </c>
       <c r="X14">
-        <v>6814.1</v>
+        <v>156.1</v>
       </c>
       <c r="Y14">
-        <v>36.9</v>
+        <v>14.7</v>
       </c>
       <c r="Z14">
-        <v>-1978.8</v>
+        <v>-520.4</v>
       </c>
       <c r="AA14">
-        <v>169.7</v>
+        <v>129.69999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15">
-        <v>181.4</v>
+        <v>127.5</v>
       </c>
       <c r="D15">
-        <v>1037.5</v>
+        <v>570</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1037.5</v>
+        <v>570</v>
       </c>
       <c r="G15">
-        <v>37642.199999999997</v>
+        <v>12137.9</v>
       </c>
       <c r="H15">
-        <v>103832.6</v>
+        <v>40178.9</v>
       </c>
       <c r="I15">
-        <v>86267.7</v>
+        <v>28447.599999999999</v>
       </c>
       <c r="J15">
-        <v>3834.3</v>
+        <v>3583.2</v>
       </c>
       <c r="K15">
-        <v>3003.1</v>
+        <v>3212.4</v>
       </c>
       <c r="L15">
-        <v>-1185.0999999999999</v>
+        <v>-2737</v>
       </c>
       <c r="M15">
-        <v>-1.1000000000000001</v>
+        <v>-237.5</v>
       </c>
       <c r="N15">
-        <v>89463.4</v>
+        <v>31661.3</v>
       </c>
       <c r="O15">
-        <v>95884.3</v>
+        <v>37060.5</v>
       </c>
       <c r="P15">
-        <v>7008.3</v>
+        <v>6795.6</v>
       </c>
       <c r="Q15">
-        <v>513.9</v>
+        <v>-178.5</v>
       </c>
       <c r="R15">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="S15">
-        <v>14900</v>
+        <v>7994</v>
       </c>
       <c r="T15">
-        <v>7948.3</v>
+        <v>3118.4</v>
       </c>
       <c r="U15">
-        <v>2486.3000000000002</v>
+        <v>2247.3000000000002</v>
       </c>
       <c r="V15">
-        <v>538.5</v>
+        <v>246.3</v>
       </c>
       <c r="W15">
-        <v>-75</v>
+        <v>-41.8</v>
       </c>
       <c r="X15">
-        <v>788.1</v>
+        <v>-864.7</v>
       </c>
       <c r="Y15">
-        <v>35.9</v>
+        <v>0</v>
       </c>
       <c r="Z15">
-        <v>-676.1</v>
+        <v>-214.8</v>
       </c>
       <c r="AA15">
-        <v>181.4</v>
+        <v>127.5</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16">
-        <v>181.9</v>
+        <v>130.80000000000001</v>
       </c>
       <c r="D16">
-        <v>1081.7</v>
+        <v>571.6</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1081.7</v>
+        <v>571.6</v>
       </c>
       <c r="G16">
-        <v>38629.599999999999</v>
+        <v>14749.7</v>
       </c>
       <c r="H16">
-        <v>105761.2</v>
+        <v>43279.3</v>
       </c>
       <c r="I16">
-        <v>88862.5</v>
+        <v>27879.1</v>
       </c>
       <c r="J16">
-        <v>3357.9</v>
+        <v>5156.3</v>
       </c>
       <c r="K16">
-        <v>2535.3000000000002</v>
+        <v>5352.4</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1934,81 +2054,81 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>91494</v>
+        <v>33233.199999999997</v>
       </c>
       <c r="O16">
-        <v>97718.6</v>
+        <v>40101.199999999997</v>
       </c>
       <c r="P16">
-        <v>5962.7</v>
+        <v>10508.7</v>
       </c>
       <c r="Q16">
-        <v>268.89999999999998</v>
+        <v>555.4</v>
       </c>
       <c r="R16">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="S16">
-        <v>15100</v>
+        <v>8030</v>
       </c>
       <c r="T16">
-        <v>8042.6</v>
+        <v>3178.1</v>
       </c>
       <c r="U16">
-        <v>2824.7</v>
+        <v>3322.6</v>
       </c>
       <c r="V16">
-        <v>1001.5</v>
+        <v>102.5</v>
       </c>
       <c r="W16">
-        <v>-74.900000000000006</v>
+        <v>-41.8</v>
       </c>
       <c r="X16">
-        <v>1426.9</v>
+        <v>3055.1</v>
       </c>
       <c r="Y16">
-        <v>34.5</v>
+        <v>0</v>
       </c>
       <c r="Z16">
-        <v>84.4</v>
+        <v>-2339.6999999999998</v>
       </c>
       <c r="AA16">
-        <v>181.9</v>
+        <v>130.80000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17">
-        <v>204.5</v>
+        <v>114.7</v>
       </c>
       <c r="D17">
-        <v>1078.9000000000001</v>
+        <v>546.4</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1078.9000000000001</v>
+        <v>546.4</v>
       </c>
       <c r="G17">
-        <v>45685.5</v>
+        <v>14412.9</v>
       </c>
       <c r="H17">
-        <v>111153.7</v>
+        <v>41110</v>
       </c>
       <c r="I17">
-        <v>91722.5</v>
+        <v>28617.8</v>
       </c>
       <c r="J17">
-        <v>3339.6</v>
+        <v>5048.8999999999996</v>
       </c>
       <c r="K17">
-        <v>4924.3</v>
+        <v>2570.3000000000002</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -2017,81 +2137,81 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>96703.8</v>
+        <v>31189.1</v>
       </c>
       <c r="O17">
-        <v>102611.1</v>
+        <v>37884.5</v>
       </c>
       <c r="P17">
-        <v>8297.1</v>
+        <v>7619.2</v>
       </c>
       <c r="Q17">
-        <v>-1026.3</v>
+        <v>305.39999999999998</v>
       </c>
       <c r="R17">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="S17">
-        <v>15200</v>
+        <v>7980</v>
       </c>
       <c r="T17">
-        <v>8542.6</v>
+        <v>3225.5</v>
       </c>
       <c r="U17">
-        <v>1628.9</v>
+        <v>3030.1</v>
       </c>
       <c r="V17">
-        <v>-266.5</v>
+        <v>246.8</v>
       </c>
       <c r="W17">
-        <v>-75.5</v>
+        <v>-41.8</v>
       </c>
       <c r="X17">
-        <v>5276.1</v>
+        <v>-2214.6</v>
       </c>
       <c r="Y17">
-        <v>33.200000000000003</v>
+        <v>0</v>
       </c>
       <c r="Z17">
-        <v>2284</v>
+        <v>2776.1</v>
       </c>
       <c r="AA17">
-        <v>204.5</v>
+        <v>114.7</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18">
-        <v>244</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>1127.0999999999999</v>
+        <v>0</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1127.0999999999999</v>
+        <v>0</v>
       </c>
       <c r="G18">
-        <v>41195.199999999997</v>
+        <v>15373.7</v>
       </c>
       <c r="H18">
-        <v>109946.5</v>
+        <v>45276.7</v>
       </c>
       <c r="I18">
-        <v>90757</v>
+        <v>31057.599999999999</v>
       </c>
       <c r="J18">
-        <v>3123.8</v>
+        <v>4403.3</v>
       </c>
       <c r="K18">
-        <v>4557.2</v>
+        <v>4011.6</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -2100,164 +2220,164 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>95608</v>
+        <v>35171.199999999997</v>
       </c>
       <c r="O18">
-        <v>101497.60000000001</v>
+        <v>41981.1</v>
       </c>
       <c r="P18">
-        <v>7946.5</v>
+        <v>8528.5</v>
       </c>
       <c r="Q18">
-        <v>131.69999999999999</v>
+        <v>0</v>
       </c>
       <c r="R18">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="S18">
-        <v>15400</v>
+        <v>8022</v>
       </c>
       <c r="T18">
-        <v>8448.9</v>
+        <v>3295.6</v>
       </c>
       <c r="U18">
-        <v>3113.3</v>
+        <v>3392.4</v>
       </c>
       <c r="V18">
-        <v>-337.5</v>
+        <v>0</v>
       </c>
       <c r="W18">
-        <v>-77.5</v>
+        <v>0</v>
       </c>
       <c r="X18">
-        <v>-417.4</v>
+        <v>0</v>
       </c>
       <c r="Y18">
-        <v>31.8</v>
+        <v>13.6</v>
       </c>
       <c r="Z18">
-        <v>-1817.5</v>
+        <v>0</v>
       </c>
       <c r="AA18">
-        <v>244</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19">
-        <v>230.7</v>
+        <v>139.1</v>
       </c>
       <c r="D19">
-        <v>1139</v>
+        <v>606.79999999999995</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1139</v>
+        <v>606.79999999999995</v>
       </c>
       <c r="G19">
-        <v>36416.5</v>
+        <v>17030.900000000001</v>
       </c>
       <c r="H19">
-        <v>106952</v>
+        <v>47761.3</v>
       </c>
       <c r="I19">
-        <v>86736.5</v>
+        <v>35096.699999999997</v>
       </c>
       <c r="J19">
-        <v>3142.9</v>
+        <v>4321.7</v>
       </c>
       <c r="K19">
-        <v>5249.4</v>
+        <v>2931.5</v>
       </c>
       <c r="L19">
-        <v>-794.1</v>
+        <v>-1789</v>
       </c>
       <c r="M19">
-        <v>-230.1</v>
+        <v>-159.80000000000001</v>
       </c>
       <c r="N19">
-        <v>92044.2</v>
+        <v>38029.199999999997</v>
       </c>
       <c r="O19">
-        <v>98344.4</v>
+        <v>44399.9</v>
       </c>
       <c r="P19">
-        <v>8422.7999999999993</v>
+        <v>7253.2</v>
       </c>
       <c r="Q19">
-        <v>1024.2</v>
+        <v>225.2</v>
       </c>
       <c r="R19">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="S19">
-        <v>15600</v>
+        <v>8844</v>
       </c>
       <c r="T19">
-        <v>8607.6</v>
+        <v>3361.4</v>
       </c>
       <c r="U19">
-        <v>2688.7</v>
+        <v>4340.8</v>
       </c>
       <c r="V19">
-        <v>490.8</v>
+        <v>222.4</v>
       </c>
       <c r="W19">
-        <v>-86.5</v>
+        <v>-46</v>
       </c>
       <c r="X19">
-        <v>-2191.3000000000002</v>
+        <v>-444.6</v>
       </c>
       <c r="Y19">
-        <v>30.5</v>
+        <v>0</v>
       </c>
       <c r="Z19">
-        <v>-4371</v>
+        <v>1851.7</v>
       </c>
       <c r="AA19">
-        <v>230.7</v>
+        <v>139.1</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20">
-        <v>269.2</v>
+        <v>150</v>
       </c>
       <c r="D20">
-        <v>1265.9000000000001</v>
+        <v>672.7</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1265.9000000000001</v>
+        <v>672.7</v>
       </c>
       <c r="G20">
-        <v>47382.5</v>
+        <v>14722.6</v>
       </c>
       <c r="H20">
-        <v>119942.9</v>
+        <v>46255.6</v>
       </c>
       <c r="I20">
-        <v>100687.9</v>
+        <v>33057.1</v>
       </c>
       <c r="J20">
-        <v>3104.6</v>
+        <v>4589.8999999999996</v>
       </c>
       <c r="K20">
-        <v>4849.3999999999996</v>
+        <v>2700.5</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -2266,81 +2386,81 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>105580.8</v>
+        <v>35758.6</v>
       </c>
       <c r="O20">
-        <v>111193.60000000001</v>
+        <v>42809.3</v>
       </c>
       <c r="P20">
-        <v>7986.2</v>
+        <v>7290.4</v>
       </c>
       <c r="Q20">
-        <v>3071</v>
+        <v>-348.4</v>
       </c>
       <c r="R20">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="S20">
-        <v>15800</v>
+        <v>8959</v>
       </c>
       <c r="T20">
-        <v>8749.2999999999993</v>
+        <v>3446.3</v>
       </c>
       <c r="U20">
-        <v>5572.9</v>
+        <v>4526.8</v>
       </c>
       <c r="V20">
-        <v>1036.4000000000001</v>
+        <v>21.8</v>
       </c>
       <c r="W20">
-        <v>-82.9</v>
+        <v>-45.9</v>
       </c>
       <c r="X20">
-        <v>12421.2</v>
+        <v>-1960.3</v>
       </c>
       <c r="Y20">
-        <v>32.200000000000003</v>
+        <v>0</v>
       </c>
       <c r="Z20">
-        <v>-3798.6</v>
+        <v>2392.9</v>
       </c>
       <c r="AA20">
-        <v>269.2</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21">
-        <v>234.6</v>
+        <v>147.69999999999999</v>
       </c>
       <c r="D21">
-        <v>1165.3</v>
+        <v>667.6</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1165.3</v>
+        <v>667.6</v>
       </c>
       <c r="G21">
-        <v>47858.2</v>
+        <v>14664.3</v>
       </c>
       <c r="H21">
-        <v>119995.2</v>
+        <v>48427.4</v>
       </c>
       <c r="I21">
-        <v>99935.9</v>
+        <v>33495.4</v>
       </c>
       <c r="J21">
-        <v>3137.8</v>
+        <v>4884.5</v>
       </c>
       <c r="K21">
-        <v>5598.3</v>
+        <v>2918.7</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -2349,81 +2469,81 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>105811.5</v>
+        <v>36414.800000000003</v>
       </c>
       <c r="O21">
-        <v>111210.7</v>
+        <v>44898.400000000001</v>
       </c>
       <c r="P21">
-        <v>8767.2000000000007</v>
+        <v>7803.2</v>
       </c>
       <c r="Q21">
-        <v>-2671.1</v>
+        <v>549.1</v>
       </c>
       <c r="R21">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="S21">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="T21">
-        <v>8784.5</v>
+        <v>3529</v>
       </c>
       <c r="U21">
-        <v>2896.5</v>
+        <v>3483.9</v>
       </c>
       <c r="V21">
-        <v>-1043.4000000000001</v>
+        <v>95.9</v>
       </c>
       <c r="W21">
-        <v>-89.6</v>
+        <v>-45.8</v>
       </c>
       <c r="X21">
-        <v>1339.5</v>
+        <v>864.4</v>
       </c>
       <c r="Y21">
-        <v>31.1</v>
+        <v>0</v>
       </c>
       <c r="Z21">
-        <v>3311</v>
+        <v>-606.79999999999995</v>
       </c>
       <c r="AA21">
-        <v>234.6</v>
+        <v>147.69999999999999</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22">
-        <v>239.3</v>
+        <v>147.6</v>
       </c>
       <c r="D22">
-        <v>1174.5999999999999</v>
+        <v>675.6</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1174.5999999999999</v>
+        <v>675.6</v>
       </c>
       <c r="G22">
-        <v>42834.400000000001</v>
+        <v>19352.5</v>
       </c>
       <c r="H22">
-        <v>116749.6</v>
+        <v>53413.8</v>
       </c>
       <c r="I22">
-        <v>96868.9</v>
+        <v>38519.5</v>
       </c>
       <c r="J22">
-        <v>3116.3</v>
+        <v>2810.3</v>
       </c>
       <c r="K22">
-        <v>5897.1</v>
+        <v>5500.2</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -2432,164 +2552,164 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>102812.6</v>
+        <v>44564.9</v>
       </c>
       <c r="O22">
-        <v>108043.7</v>
+        <v>49813</v>
       </c>
       <c r="P22">
-        <v>9043.1</v>
+        <v>8867.2000000000007</v>
       </c>
       <c r="Q22">
-        <v>1973.4</v>
+        <v>517.79999999999995</v>
       </c>
       <c r="R22">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="S22">
-        <v>16200</v>
+        <v>9008</v>
       </c>
       <c r="T22">
-        <v>8705.9</v>
+        <v>3600.8</v>
       </c>
       <c r="U22">
-        <v>6432.7</v>
+        <v>7841.3</v>
       </c>
       <c r="V22">
-        <v>1350.6</v>
+        <v>243</v>
       </c>
       <c r="W22">
-        <v>-89.4</v>
+        <v>-45.8</v>
       </c>
       <c r="X22">
-        <v>-3035.3</v>
+        <v>6063.8</v>
       </c>
       <c r="Y22">
-        <v>29.7</v>
+        <v>12.2</v>
       </c>
       <c r="Z22">
-        <v>782.1</v>
+        <v>-5541.8</v>
       </c>
       <c r="AA22">
-        <v>239.3</v>
+        <v>147.6</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23">
-        <v>245.4</v>
+        <v>163</v>
       </c>
       <c r="D23">
-        <v>1188</v>
+        <v>723.7</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1188</v>
+        <v>723.7</v>
       </c>
       <c r="G23">
-        <v>41230.5</v>
+        <v>15935.2</v>
       </c>
       <c r="H23">
-        <v>117798.8</v>
+        <v>50195</v>
       </c>
       <c r="I23">
-        <v>97659.6</v>
+        <v>34608.800000000003</v>
       </c>
       <c r="J23">
-        <v>3151.3</v>
+        <v>4575.1000000000004</v>
       </c>
       <c r="K23">
-        <v>6118.1</v>
+        <v>4899.3</v>
       </c>
       <c r="L23">
-        <v>-154.80000000000001</v>
+        <v>-1281.7</v>
       </c>
       <c r="M23">
-        <v>-1.4</v>
+        <v>-163.9</v>
       </c>
       <c r="N23">
-        <v>103823</v>
+        <v>39508.5</v>
       </c>
       <c r="O23">
-        <v>108966</v>
+        <v>46491.6</v>
       </c>
       <c r="P23">
-        <v>9297.7000000000007</v>
+        <v>9474.4</v>
       </c>
       <c r="Q23">
-        <v>569.9</v>
+        <v>-180.8</v>
       </c>
       <c r="R23">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="S23">
-        <v>16300</v>
+        <v>9100</v>
       </c>
       <c r="T23">
-        <v>8832.7999999999993</v>
+        <v>3703.4</v>
       </c>
       <c r="U23">
-        <v>5215</v>
+        <v>3727.2</v>
       </c>
       <c r="V23">
-        <v>-295.5</v>
+        <v>136.4</v>
       </c>
       <c r="W23">
-        <v>-88.7</v>
+        <v>-50.1</v>
       </c>
       <c r="X23">
-        <v>-0.2</v>
+        <v>-3375.2</v>
       </c>
       <c r="Y23">
-        <v>28.3</v>
+        <v>0</v>
       </c>
       <c r="Z23">
-        <v>-708.1</v>
+        <v>3412.3</v>
       </c>
       <c r="AA23">
-        <v>245.4</v>
+        <v>163</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
       <c r="C24">
-        <v>263</v>
+        <v>167.9</v>
       </c>
       <c r="D24">
-        <v>1324.5</v>
+        <v>773.2</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1324.5</v>
+        <v>773.2</v>
       </c>
       <c r="G24">
-        <v>43172.5</v>
+        <v>18345</v>
       </c>
       <c r="H24">
-        <v>121509.6</v>
+        <v>53325.9</v>
       </c>
       <c r="I24">
-        <v>99086.9</v>
+        <v>38683.1</v>
       </c>
       <c r="J24">
-        <v>3165.5</v>
+        <v>6036.1</v>
       </c>
       <c r="K24">
-        <v>8124.2</v>
+        <v>2843.4</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -2598,81 +2718,81 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>107255.3</v>
+        <v>41526.9</v>
       </c>
       <c r="O24">
-        <v>112558.1</v>
+        <v>49517.5</v>
       </c>
       <c r="P24">
-        <v>11316.6</v>
+        <v>8879.5</v>
       </c>
       <c r="Q24">
-        <v>-1676.3</v>
+        <v>1541.3</v>
       </c>
       <c r="R24">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="S24">
-        <v>0</v>
+        <v>9300</v>
       </c>
       <c r="T24">
-        <v>8951.5</v>
+        <v>3808.4</v>
       </c>
       <c r="U24">
-        <v>5326.1</v>
+        <v>6028.8</v>
       </c>
       <c r="V24">
-        <v>-211.7</v>
+        <v>47.2</v>
       </c>
       <c r="W24">
-        <v>-88.1</v>
+        <v>-50.2</v>
       </c>
       <c r="X24">
-        <v>4123.1000000000004</v>
+        <v>3263.4</v>
       </c>
       <c r="Y24">
-        <v>26.9</v>
+        <v>0</v>
       </c>
       <c r="Z24">
-        <v>-2811.4</v>
+        <v>-485</v>
       </c>
       <c r="AA24">
-        <v>263</v>
+        <v>167.9</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
       <c r="C25">
-        <v>257.60000000000002</v>
+        <v>163.69999999999999</v>
       </c>
       <c r="D25">
-        <v>1216.7</v>
+        <v>727.5</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1216.7</v>
+        <v>727.5</v>
       </c>
       <c r="G25">
-        <v>38808.699999999997</v>
+        <v>18741.3</v>
       </c>
       <c r="H25">
-        <v>120085</v>
+        <v>55200.9</v>
       </c>
       <c r="I25">
-        <v>99471.3</v>
+        <v>38675.9</v>
       </c>
       <c r="J25">
-        <v>3149.2</v>
+        <v>7418.3</v>
       </c>
       <c r="K25">
-        <v>5066.6000000000004</v>
+        <v>2693.3</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -2681,81 +2801,81 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>104577</v>
+        <v>41369.9</v>
       </c>
       <c r="O25">
-        <v>110505.2</v>
+        <v>51264.9</v>
       </c>
       <c r="P25">
-        <v>8241.2999999999993</v>
+        <v>10111.6</v>
       </c>
       <c r="Q25">
-        <v>-419.4</v>
+        <v>-531.79999999999995</v>
       </c>
       <c r="R25">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="S25">
-        <v>16900</v>
+        <v>9500</v>
       </c>
       <c r="T25">
-        <v>9579.7999999999993</v>
+        <v>3936</v>
       </c>
       <c r="U25">
-        <v>4907.8</v>
+        <v>4871.2</v>
       </c>
       <c r="V25">
-        <v>1178.7</v>
+        <v>182.5</v>
       </c>
       <c r="W25">
-        <v>-87.7</v>
+        <v>-50.1</v>
       </c>
       <c r="X25">
-        <v>-1301.4000000000001</v>
+        <v>1197.8</v>
       </c>
       <c r="Y25">
-        <v>25.5</v>
+        <v>0</v>
       </c>
       <c r="Z25">
-        <v>-2643</v>
+        <v>-2144.5</v>
       </c>
       <c r="AA25">
-        <v>257.60000000000002</v>
+        <v>163.69999999999999</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26">
-        <v>266.5</v>
+        <v>170.8</v>
       </c>
       <c r="D26">
-        <v>1273.0999999999999</v>
+        <v>756.7</v>
       </c>
       <c r="E26">
         <v>0</v>
       </c>
       <c r="F26">
-        <v>1273.0999999999999</v>
+        <v>756.7</v>
       </c>
       <c r="G26">
-        <v>42179.1</v>
+        <v>22101.8</v>
       </c>
       <c r="H26">
-        <v>123926.9</v>
+        <v>60712.2</v>
       </c>
       <c r="I26">
-        <v>101651.7</v>
+        <v>43820.2</v>
       </c>
       <c r="J26">
-        <v>3081.9</v>
+        <v>2510</v>
       </c>
       <c r="K26">
-        <v>6732.9</v>
+        <v>7748.6</v>
       </c>
       <c r="L26">
         <v>0</v>
@@ -2764,164 +2884,164 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>108421.8</v>
+        <v>52079</v>
       </c>
       <c r="O26">
-        <v>114156.5</v>
+        <v>56768.3</v>
       </c>
       <c r="P26">
-        <v>9837.7999999999993</v>
+        <v>10778.4</v>
       </c>
       <c r="Q26">
-        <v>439.3</v>
+        <v>1136.0999999999999</v>
       </c>
       <c r="R26">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="S26">
-        <v>17100</v>
+        <v>9726</v>
       </c>
       <c r="T26">
-        <v>9770.4</v>
+        <v>3943.9</v>
       </c>
       <c r="U26">
-        <v>5338.8</v>
+        <v>6260.7</v>
       </c>
       <c r="V26">
-        <v>838.5</v>
+        <v>22.4</v>
       </c>
       <c r="W26">
-        <v>-91.9</v>
+        <v>-50.1</v>
       </c>
       <c r="X26">
-        <v>4715.3999999999996</v>
+        <v>5720.5</v>
       </c>
       <c r="Y26">
-        <v>23</v>
+        <v>10.8</v>
       </c>
       <c r="Z26">
-        <v>97.3</v>
+        <v>-2629.8</v>
       </c>
       <c r="AA26">
-        <v>266.5</v>
+        <v>170.8</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
       </c>
       <c r="C27">
-        <v>276.10000000000002</v>
+        <v>186.7</v>
       </c>
       <c r="D27">
-        <v>1285.4000000000001</v>
+        <v>808.2</v>
       </c>
       <c r="E27">
         <v>0</v>
       </c>
       <c r="F27">
-        <v>1285.4000000000001</v>
+        <v>808.2</v>
       </c>
       <c r="G27">
-        <v>41695.800000000003</v>
+        <v>22404.9</v>
       </c>
       <c r="H27">
-        <v>121488.7</v>
+        <v>59532.4</v>
       </c>
       <c r="I27">
-        <v>100529.5</v>
+        <v>47019.6</v>
       </c>
       <c r="J27">
-        <v>3076.7</v>
+        <v>3806.7</v>
       </c>
       <c r="K27">
-        <v>5717</v>
+        <v>1984.1</v>
       </c>
       <c r="L27">
-        <v>-1071</v>
+        <v>-5372.4</v>
       </c>
       <c r="M27">
-        <v>-3.8</v>
+        <v>-274.39999999999998</v>
       </c>
       <c r="N27">
-        <v>106283.3</v>
+        <v>49004.6</v>
       </c>
       <c r="O27">
-        <v>111511</v>
+        <v>55489</v>
       </c>
       <c r="P27">
-        <v>8813</v>
+        <v>5790.8</v>
       </c>
       <c r="Q27">
-        <v>-682.8</v>
+        <v>-2389.5</v>
       </c>
       <c r="R27">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="S27">
-        <v>17300</v>
+        <v>9940</v>
       </c>
       <c r="T27">
-        <v>9977.7000000000007</v>
+        <v>4043.4</v>
       </c>
       <c r="U27">
-        <v>4649.2</v>
+        <v>5494.8</v>
       </c>
       <c r="V27">
-        <v>784.7</v>
+        <v>111.3</v>
       </c>
       <c r="W27">
-        <v>-92.8</v>
+        <v>-54.6</v>
       </c>
       <c r="X27">
-        <v>-2707.6</v>
+        <v>-1238</v>
       </c>
       <c r="Y27">
-        <v>19.3</v>
+        <v>0</v>
       </c>
       <c r="Z27">
-        <v>441.3</v>
+        <v>-1177.4000000000001</v>
       </c>
       <c r="AA27">
-        <v>276.10000000000002</v>
+        <v>186.7</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28">
-        <v>267.89999999999998</v>
+        <v>206.9</v>
       </c>
       <c r="D28">
-        <v>1328.2</v>
+        <v>865</v>
       </c>
       <c r="E28">
         <v>0</v>
       </c>
       <c r="F28">
-        <v>1328.2</v>
+        <v>865</v>
       </c>
       <c r="G28">
-        <v>44661.5</v>
+        <v>19646.5</v>
       </c>
       <c r="H28">
-        <v>125605.7</v>
+        <v>59609.7</v>
       </c>
       <c r="I28">
-        <v>104312.1</v>
+        <v>45862</v>
       </c>
       <c r="J28">
-        <v>3428.4</v>
+        <v>4254.6000000000004</v>
       </c>
       <c r="K28">
-        <v>5976.7</v>
+        <v>2742.1</v>
       </c>
       <c r="L28">
         <v>0</v>
@@ -2930,81 +3050,81 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>110325.2</v>
+        <v>48604.6</v>
       </c>
       <c r="O28">
-        <v>115537.8</v>
+        <v>55382.5</v>
       </c>
       <c r="P28">
-        <v>9422.7999999999993</v>
+        <v>6996.7</v>
       </c>
       <c r="Q28">
-        <v>1045.5999999999999</v>
+        <v>947.5</v>
       </c>
       <c r="R28">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="S28">
-        <v>17600</v>
+        <v>10248</v>
       </c>
       <c r="T28">
-        <v>10067.9</v>
+        <v>4227.2</v>
       </c>
       <c r="U28">
-        <v>5704.8</v>
+        <v>4400</v>
       </c>
       <c r="V28">
-        <v>-472.1</v>
+        <v>256.10000000000002</v>
       </c>
       <c r="W28">
-        <v>-108</v>
+        <v>-54.9</v>
       </c>
       <c r="X28">
-        <v>2891.7</v>
+        <v>-173.1</v>
       </c>
       <c r="Y28">
-        <v>17.7</v>
+        <v>0</v>
       </c>
       <c r="Z28">
-        <v>1239.7</v>
+        <v>2244.3000000000002</v>
       </c>
       <c r="AA28">
-        <v>267.89999999999998</v>
+        <v>206.9</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
       </c>
       <c r="C29">
-        <v>298.39999999999998</v>
+        <v>208.3</v>
       </c>
       <c r="D29">
-        <v>1352.2</v>
+        <v>867.7</v>
       </c>
       <c r="E29">
         <v>0</v>
       </c>
       <c r="F29">
-        <v>1352.2</v>
+        <v>867.7</v>
       </c>
       <c r="G29">
-        <v>48991.5</v>
+        <v>22485.5</v>
       </c>
       <c r="H29">
-        <v>131400.20000000001</v>
+        <v>63098.9</v>
       </c>
       <c r="I29">
-        <v>105810.6</v>
+        <v>47668.800000000003</v>
       </c>
       <c r="J29">
-        <v>3421.9</v>
+        <v>3207.4</v>
       </c>
       <c r="K29">
-        <v>9909</v>
+        <v>4448.5</v>
       </c>
       <c r="L29">
         <v>0</v>
@@ -3013,81 +3133,81 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>115754.5</v>
+        <v>52117.9</v>
       </c>
       <c r="O29">
-        <v>121235</v>
+        <v>58739.5</v>
       </c>
       <c r="P29">
-        <v>13347</v>
+        <v>7655.9</v>
       </c>
       <c r="Q29">
-        <v>-431.9</v>
+        <v>352.5</v>
       </c>
       <c r="R29">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="S29">
-        <v>0</v>
+        <v>10600</v>
       </c>
       <c r="T29">
-        <v>10165.200000000001</v>
+        <v>4359.3999999999996</v>
       </c>
       <c r="U29">
-        <v>5327.9</v>
+        <v>5287.8</v>
       </c>
       <c r="V29">
-        <v>557.1</v>
+        <v>234.8</v>
       </c>
       <c r="W29">
-        <v>-92.8</v>
+        <v>-55</v>
       </c>
       <c r="X29">
-        <v>4632.5</v>
+        <v>2438.1999999999998</v>
       </c>
       <c r="Y29">
-        <v>16.100000000000001</v>
+        <v>0</v>
       </c>
       <c r="Z29">
-        <v>-1712.7</v>
+        <v>-1597</v>
       </c>
       <c r="AA29">
-        <v>298.39999999999998</v>
+        <v>208.3</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="B30" t="s">
         <v>55</v>
       </c>
       <c r="C30">
-        <v>356.6</v>
+        <v>125</v>
       </c>
       <c r="D30">
-        <v>1424.8</v>
+        <v>950.1</v>
       </c>
       <c r="E30">
         <v>0</v>
       </c>
       <c r="F30">
-        <v>1424.8</v>
+        <v>950.1</v>
       </c>
       <c r="G30">
-        <v>55186.1</v>
+        <v>30336.6</v>
       </c>
       <c r="H30">
-        <v>138590.5</v>
+        <v>67611.199999999997</v>
       </c>
       <c r="I30">
-        <v>112390.8</v>
+        <v>51213.1</v>
       </c>
       <c r="J30">
-        <v>2904.4</v>
+        <v>3146.2</v>
       </c>
       <c r="K30">
-        <v>10378.799999999999</v>
+        <v>5337.9</v>
       </c>
       <c r="L30">
         <v>0</v>
@@ -3096,164 +3216,164 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>123105.4</v>
+        <v>57006.400000000001</v>
       </c>
       <c r="O30">
-        <v>128374.3</v>
+        <v>63102.1</v>
       </c>
       <c r="P30">
-        <v>13603.1</v>
+        <v>8950.7999999999993</v>
       </c>
       <c r="Q30">
-        <v>-744.8</v>
+        <v>50.1</v>
       </c>
       <c r="R30">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="S30">
-        <v>18100</v>
+        <v>10918</v>
       </c>
       <c r="T30">
-        <v>10216.200000000001</v>
+        <v>4509.1000000000004</v>
       </c>
       <c r="U30">
-        <v>4539.1000000000004</v>
+        <v>7712.3</v>
       </c>
       <c r="V30">
-        <v>850.7</v>
+        <v>278.5</v>
       </c>
       <c r="W30">
-        <v>-113</v>
+        <v>-55</v>
       </c>
       <c r="X30">
-        <v>6436.1</v>
+        <v>4433.3</v>
       </c>
       <c r="Y30">
-        <v>14.4</v>
+        <v>11.8</v>
       </c>
       <c r="Z30">
-        <v>-2143</v>
+        <v>-1614.3</v>
       </c>
       <c r="AA30">
-        <v>356.6</v>
+        <v>125</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
       <c r="C31">
-        <v>381.6</v>
+        <v>385.2</v>
       </c>
       <c r="D31">
-        <v>1479</v>
+        <v>945.5</v>
       </c>
       <c r="E31">
         <v>0</v>
       </c>
       <c r="F31">
-        <v>1479</v>
+        <v>945.5</v>
       </c>
       <c r="G31">
-        <v>43667.4</v>
+        <v>35063.1</v>
       </c>
       <c r="H31">
-        <v>129672.2</v>
+        <v>77480.3</v>
       </c>
       <c r="I31">
-        <v>105191.4</v>
+        <v>58392.5</v>
       </c>
       <c r="J31">
-        <v>3185</v>
+        <v>3618.2</v>
       </c>
       <c r="K31">
-        <v>8835.7999999999993</v>
+        <v>6529</v>
       </c>
       <c r="L31">
-        <v>-1977.1</v>
+        <v>0</v>
       </c>
       <c r="M31">
-        <v>-1.7</v>
+        <v>-107.5</v>
       </c>
       <c r="N31">
-        <v>114056.6</v>
+        <v>64921.7</v>
       </c>
       <c r="O31">
-        <v>119446.2</v>
+        <v>72721.899999999994</v>
       </c>
       <c r="P31">
-        <v>12033.4</v>
+        <v>10147.200000000001</v>
       </c>
       <c r="Q31">
-        <v>1563.3</v>
+        <v>139.9</v>
       </c>
       <c r="R31">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="S31">
-        <v>0</v>
+        <v>11323</v>
       </c>
       <c r="T31">
-        <v>10226</v>
+        <v>4758.3999999999996</v>
       </c>
       <c r="U31">
-        <v>6111.4</v>
+        <v>9546.7000000000007</v>
       </c>
       <c r="V31">
-        <v>-477.8</v>
+        <v>271.10000000000002</v>
       </c>
       <c r="W31">
-        <v>-100.9</v>
+        <v>-61.9</v>
       </c>
       <c r="X31">
-        <v>-9167.2000000000007</v>
+        <v>8184.6</v>
       </c>
       <c r="Y31">
-        <v>12.6</v>
+        <v>0</v>
       </c>
       <c r="Z31">
-        <v>-853.9</v>
+        <v>-5420.6</v>
       </c>
       <c r="AA31">
-        <v>381.6</v>
+        <v>385.2</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="C32">
-        <v>390.4</v>
+        <v>215.6</v>
       </c>
       <c r="D32">
-        <v>1504.6</v>
+        <v>1071.4000000000001</v>
       </c>
       <c r="E32">
         <v>0</v>
       </c>
       <c r="F32">
-        <v>1504.6</v>
+        <v>1071.4000000000001</v>
       </c>
       <c r="G32">
-        <v>48442.3</v>
+        <v>30409.8</v>
       </c>
       <c r="H32">
-        <v>135106.20000000001</v>
+        <v>74806.899999999994</v>
       </c>
       <c r="I32">
-        <v>106524.9</v>
+        <v>60274.3</v>
       </c>
       <c r="J32">
-        <v>3175</v>
+        <v>3718.7</v>
       </c>
       <c r="K32">
-        <v>12588.3</v>
+        <v>2856.3</v>
       </c>
       <c r="L32">
         <v>0</v>
@@ -3262,81 +3382,81 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>119139.9</v>
+        <v>63130.8</v>
       </c>
       <c r="O32">
-        <v>124748.6</v>
+        <v>69842.8</v>
       </c>
       <c r="P32">
-        <v>15774.1</v>
+        <v>6575</v>
       </c>
       <c r="Q32">
-        <v>-1193.3</v>
+        <v>1590.1</v>
       </c>
       <c r="R32">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="S32">
-        <v>0</v>
+        <v>11797</v>
       </c>
       <c r="T32">
-        <v>10357.6</v>
+        <v>4964.1000000000004</v>
       </c>
       <c r="U32">
-        <v>4898.1000000000004</v>
+        <v>8572.7999999999993</v>
       </c>
       <c r="V32">
-        <v>332.3</v>
+        <v>300.8</v>
       </c>
       <c r="W32">
-        <v>-111.9</v>
+        <v>-61.6</v>
       </c>
       <c r="X32">
-        <v>6210.8</v>
+        <v>-1610.6</v>
       </c>
       <c r="Y32">
-        <v>10.8</v>
+        <v>0</v>
       </c>
       <c r="Z32">
-        <v>-931.8</v>
+        <v>2883.4</v>
       </c>
       <c r="AA32">
-        <v>390.4</v>
+        <v>215.6</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
       </c>
       <c r="C33">
-        <v>374.5</v>
+        <v>-148.30000000000001</v>
       </c>
       <c r="D33">
-        <v>1483.3</v>
+        <v>901.2</v>
       </c>
       <c r="E33">
         <v>0</v>
       </c>
       <c r="F33">
-        <v>1483.3</v>
+        <v>901.2</v>
       </c>
       <c r="G33">
-        <v>45640.1</v>
+        <v>30723.7</v>
       </c>
       <c r="H33">
-        <v>132378.5</v>
+        <v>79244</v>
       </c>
       <c r="I33">
-        <v>104891.3</v>
+        <v>62439.1</v>
       </c>
       <c r="J33">
-        <v>3361.4</v>
+        <v>4582.3999999999996</v>
       </c>
       <c r="K33">
-        <v>11052.4</v>
+        <v>2784</v>
       </c>
       <c r="L33">
         <v>0</v>
@@ -3345,81 +3465,81 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>115967.9</v>
+        <v>65223.7</v>
       </c>
       <c r="O33">
-        <v>122014</v>
+        <v>74408</v>
       </c>
       <c r="P33">
-        <v>14422.7</v>
+        <v>7366.4</v>
       </c>
       <c r="Q33">
-        <v>185.3</v>
+        <v>-1875.9</v>
       </c>
       <c r="R33">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="S33">
-        <v>0</v>
+        <v>12100</v>
       </c>
       <c r="T33">
-        <v>10364.5</v>
+        <v>4836</v>
       </c>
       <c r="U33">
-        <v>5116.3999999999996</v>
+        <v>4645.6000000000004</v>
       </c>
       <c r="V33">
-        <v>1453.9</v>
+        <v>347.3</v>
       </c>
       <c r="W33">
-        <v>-99.9</v>
+        <v>-61.9</v>
       </c>
       <c r="X33">
-        <v>-2939.6</v>
+        <v>3325.3</v>
       </c>
       <c r="Y33">
-        <v>8.9</v>
+        <v>0</v>
       </c>
       <c r="Z33">
-        <v>-106.3</v>
+        <v>-6017.9</v>
       </c>
       <c r="AA33">
-        <v>374.5</v>
+        <v>-148.30000000000001</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
       </c>
       <c r="C34">
-        <v>409.9</v>
+        <v>342.3</v>
       </c>
       <c r="D34">
-        <v>1507.8</v>
+        <v>1077.5</v>
       </c>
       <c r="E34">
         <v>0</v>
       </c>
       <c r="F34">
-        <v>1507.8</v>
+        <v>1077.5</v>
       </c>
       <c r="G34">
-        <v>43830.1</v>
+        <v>32588.9</v>
       </c>
       <c r="H34">
-        <v>132212.5</v>
+        <v>82053.600000000006</v>
       </c>
       <c r="I34">
-        <v>104496.8</v>
+        <v>62406.400000000001</v>
       </c>
       <c r="J34">
-        <v>3401.3</v>
+        <v>4232.7</v>
       </c>
       <c r="K34">
-        <v>11256.3</v>
+        <v>4049.3</v>
       </c>
       <c r="L34">
         <v>0</v>
@@ -3428,164 +3548,164 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>115783.9</v>
+        <v>66835.7</v>
       </c>
       <c r="O34">
-        <v>121704.2</v>
+        <v>75664.2</v>
       </c>
       <c r="P34">
-        <v>14657.6</v>
+        <v>8672</v>
       </c>
       <c r="Q34">
-        <v>-491.8</v>
+        <v>-1127.5</v>
       </c>
       <c r="R34">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="S34">
-        <v>18800</v>
+        <v>12200</v>
       </c>
       <c r="T34">
-        <v>10508.3</v>
+        <v>6389.4</v>
       </c>
       <c r="U34">
-        <v>4715.6000000000004</v>
+        <v>2817.2</v>
       </c>
       <c r="V34">
-        <v>459.1</v>
+        <v>-63.9</v>
       </c>
       <c r="W34">
-        <v>-139.1</v>
+        <v>-62.3</v>
       </c>
       <c r="X34">
-        <v>77.8</v>
+        <v>2476.8000000000002</v>
       </c>
       <c r="Y34">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Z34">
-        <v>-2098.8000000000002</v>
+        <v>6032.1</v>
       </c>
       <c r="AA34">
-        <v>409.9</v>
+        <v>342.3</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="B35" t="s">
         <v>60</v>
       </c>
       <c r="C35">
-        <v>347.1</v>
+        <v>161.80000000000001</v>
       </c>
       <c r="D35">
-        <v>1480.9</v>
+        <v>838.6</v>
       </c>
       <c r="E35">
         <v>0</v>
       </c>
       <c r="F35">
-        <v>1480.9</v>
+        <v>838.6</v>
       </c>
       <c r="G35">
-        <v>36738</v>
+        <v>24591.8</v>
       </c>
       <c r="H35">
-        <v>121869.4</v>
+        <v>78464.600000000006</v>
       </c>
       <c r="I35">
-        <v>95844.2</v>
+        <v>53344.6</v>
       </c>
       <c r="J35">
-        <v>3427.5</v>
+        <v>4469.8999999999996</v>
       </c>
       <c r="K35">
-        <v>8923.6</v>
+        <v>10959.4</v>
       </c>
       <c r="L35">
-        <v>-2229.6</v>
+        <v>-3382.9</v>
       </c>
       <c r="M35">
-        <v>0</v>
+        <v>-132.1</v>
       </c>
       <c r="N35">
-        <v>104824</v>
+        <v>64304</v>
       </c>
       <c r="O35">
-        <v>111253.2</v>
+        <v>71939.899999999994</v>
       </c>
       <c r="P35">
-        <v>12860.8</v>
+        <v>15429.3</v>
       </c>
       <c r="Q35">
-        <v>492.5</v>
+        <v>-544.1</v>
       </c>
       <c r="R35">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="S35">
-        <v>0</v>
+        <v>12200</v>
       </c>
       <c r="T35">
-        <v>10616.2</v>
+        <v>6524.7</v>
       </c>
       <c r="U35">
-        <v>5111.1000000000004</v>
+        <v>2555.4</v>
       </c>
       <c r="V35">
-        <v>293.7</v>
+        <v>446.8</v>
       </c>
       <c r="W35">
-        <v>-126.7</v>
+        <v>-82.4</v>
       </c>
       <c r="X35">
-        <v>-11446.4</v>
+        <v>-2366.6999999999998</v>
       </c>
       <c r="Y35">
-        <v>509.7</v>
+        <v>0</v>
       </c>
       <c r="Z35">
-        <v>2505</v>
+        <v>-3796.7</v>
       </c>
       <c r="AA35">
-        <v>347.1</v>
+        <v>161.80000000000001</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
       </c>
       <c r="C36">
-        <v>389.4</v>
+        <v>314.2</v>
       </c>
       <c r="D36">
-        <v>1513.1</v>
+        <v>975.2</v>
       </c>
       <c r="E36">
         <v>0</v>
       </c>
       <c r="F36">
-        <v>1513.1</v>
+        <v>975.2</v>
       </c>
       <c r="G36">
-        <v>40752.5</v>
+        <v>23818.400000000001</v>
       </c>
       <c r="H36">
-        <v>126550.9</v>
+        <v>75045.2</v>
       </c>
       <c r="I36">
-        <v>100230.39999999999</v>
+        <v>53580.6</v>
       </c>
       <c r="J36">
-        <v>3990.8</v>
+        <v>4964.3</v>
       </c>
       <c r="K36">
-        <v>8826.5</v>
+        <v>7083.7</v>
       </c>
       <c r="L36">
         <v>0</v>
@@ -3594,81 +3714,81 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>109138.3</v>
+        <v>60664.3</v>
       </c>
       <c r="O36">
-        <v>115745.4</v>
+        <v>68916.5</v>
       </c>
       <c r="P36">
-        <v>13309.3</v>
+        <v>12048</v>
       </c>
       <c r="Q36">
-        <v>274.2</v>
+        <v>427.2</v>
       </c>
       <c r="R36">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="S36">
-        <v>0</v>
+        <v>12400</v>
       </c>
       <c r="T36">
-        <v>10805.5</v>
+        <v>6128.7</v>
       </c>
       <c r="U36">
-        <v>5354.3</v>
+        <v>3606.1</v>
       </c>
       <c r="V36">
-        <v>84.8</v>
+        <v>-103.6</v>
       </c>
       <c r="W36">
-        <v>-148.4</v>
+        <v>-89.3</v>
       </c>
       <c r="X36">
-        <v>4431</v>
+        <v>-3954.7</v>
       </c>
       <c r="Y36">
-        <v>441.1</v>
+        <v>0</v>
       </c>
       <c r="Z36">
-        <v>934.3</v>
+        <v>2704.4</v>
       </c>
       <c r="AA36">
-        <v>389.4</v>
+        <v>314.2</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37">
-        <v>384.6</v>
+        <v>187.9</v>
       </c>
       <c r="D37">
-        <v>1544.9</v>
+        <v>857.7</v>
       </c>
       <c r="E37">
         <v>0</v>
       </c>
       <c r="F37">
-        <v>1544.9</v>
+        <v>857.7</v>
       </c>
       <c r="G37">
-        <v>36556.1</v>
+        <v>30712.7</v>
       </c>
       <c r="H37">
-        <v>124355.8</v>
+        <v>77901.5</v>
       </c>
       <c r="I37">
-        <v>97264.2</v>
+        <v>55324.1</v>
       </c>
       <c r="J37">
-        <v>4034.9</v>
+        <v>4741.3</v>
       </c>
       <c r="K37">
-        <v>8984.6</v>
+        <v>8335</v>
       </c>
       <c r="L37">
         <v>0</v>
@@ -3677,81 +3797,81 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>106303.3</v>
+        <v>63659.1</v>
       </c>
       <c r="O37">
-        <v>113544.5</v>
+        <v>71678.2</v>
       </c>
       <c r="P37">
-        <v>13571.9</v>
+        <v>13076.3</v>
       </c>
       <c r="Q37">
-        <v>-310.7</v>
+        <v>354.6</v>
       </c>
       <c r="R37">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="S37">
-        <v>0</v>
+        <v>12400</v>
       </c>
       <c r="T37">
-        <v>10811.3</v>
+        <v>6223.3</v>
       </c>
       <c r="U37">
-        <v>5047.6000000000004</v>
+        <v>2939.7</v>
       </c>
       <c r="V37">
-        <v>577.1</v>
+        <v>349.3</v>
       </c>
       <c r="W37">
-        <v>-135</v>
+        <v>-67.599999999999994</v>
       </c>
       <c r="X37">
-        <v>-2483.5</v>
+        <v>2762</v>
       </c>
       <c r="Y37">
-        <v>525.5</v>
+        <v>0</v>
       </c>
       <c r="Z37">
-        <v>-2389.1</v>
+        <v>2100.1</v>
       </c>
       <c r="AA37">
-        <v>384.6</v>
+        <v>187.9</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
       </c>
       <c r="C38">
-        <v>371.1</v>
+        <v>200.3</v>
       </c>
       <c r="D38">
-        <v>1548.7</v>
+        <v>900.4</v>
       </c>
       <c r="E38">
         <v>0</v>
       </c>
       <c r="F38">
-        <v>1548.7</v>
+        <v>900.4</v>
       </c>
       <c r="G38">
-        <v>46999.9</v>
+        <v>32594.9</v>
       </c>
       <c r="H38">
-        <v>136828.4</v>
+        <v>82141.5</v>
       </c>
       <c r="I38">
-        <v>109120.6</v>
+        <v>58281.3</v>
       </c>
       <c r="J38">
-        <v>3498.9</v>
+        <v>4493.6000000000004</v>
       </c>
       <c r="K38">
-        <v>9482</v>
+        <v>9765.6</v>
       </c>
       <c r="L38">
         <v>0</v>
@@ -3760,164 +3880,164 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>119128</v>
+        <v>68211.899999999994</v>
       </c>
       <c r="O38">
-        <v>125737.4</v>
+        <v>75829.399999999994</v>
       </c>
       <c r="P38">
-        <v>14083.9</v>
+        <v>14432</v>
       </c>
       <c r="Q38">
-        <v>-578.4</v>
+        <v>-394.1</v>
       </c>
       <c r="R38">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="S38">
-        <v>19800</v>
+        <v>12400</v>
       </c>
       <c r="T38">
-        <v>11091</v>
+        <v>6312.1</v>
       </c>
       <c r="U38">
-        <v>4464.2</v>
+        <v>2741.8</v>
       </c>
       <c r="V38">
-        <v>1636.4</v>
+        <v>322.2</v>
       </c>
       <c r="W38">
-        <v>-166</v>
+        <v>-67.599999999999994</v>
       </c>
       <c r="X38">
-        <v>10114.799999999999</v>
+        <v>3980.6</v>
       </c>
       <c r="Y38">
-        <v>603.1</v>
+        <v>7.8</v>
       </c>
       <c r="Z38">
-        <v>-1282</v>
+        <v>679.2</v>
       </c>
       <c r="AA38">
-        <v>371.1</v>
+        <v>200.3</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
       </c>
       <c r="C39">
-        <v>360.6</v>
+        <v>157.19999999999999</v>
       </c>
       <c r="D39">
-        <v>1526.7</v>
+        <v>857.9</v>
       </c>
       <c r="E39">
         <v>0</v>
       </c>
       <c r="F39">
-        <v>1526.7</v>
+        <v>857.9</v>
       </c>
       <c r="G39">
-        <v>65420.7</v>
+        <v>29142.400000000001</v>
       </c>
       <c r="H39">
-        <v>161709.20000000001</v>
+        <v>76318.600000000006</v>
       </c>
       <c r="I39">
-        <v>131491.20000000001</v>
+        <v>57435.199999999997</v>
       </c>
       <c r="J39">
-        <v>4142.2</v>
+        <v>4397.2</v>
       </c>
       <c r="K39">
-        <v>11420.4</v>
+        <v>5455</v>
       </c>
       <c r="L39">
-        <v>-1233.5999999999999</v>
+        <v>-10506.5</v>
       </c>
       <c r="M39">
-        <v>0</v>
+        <v>-256.5</v>
       </c>
       <c r="N39">
-        <v>142938.79999999999</v>
+        <v>62890.2</v>
       </c>
       <c r="O39">
-        <v>150829.5</v>
+        <v>69871.5</v>
       </c>
       <c r="P39">
-        <v>15562.6</v>
+        <v>9852.2000000000007</v>
       </c>
       <c r="Q39">
-        <v>1374</v>
+        <v>159.9</v>
       </c>
       <c r="R39">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="S39">
-        <v>0</v>
+        <v>12500</v>
       </c>
       <c r="T39">
-        <v>10879.7</v>
+        <v>6447.1</v>
       </c>
       <c r="U39">
-        <v>5833.2</v>
+        <v>2802.1</v>
       </c>
       <c r="V39">
-        <v>-2685.3</v>
+        <v>34.799999999999997</v>
       </c>
       <c r="W39">
-        <v>-152.9</v>
+        <v>-67.7</v>
       </c>
       <c r="X39">
-        <v>25708</v>
+        <v>-5365.9</v>
       </c>
       <c r="Y39">
         <v>0</v>
       </c>
       <c r="Z39">
-        <v>-1973.2</v>
+        <v>-2804.3</v>
       </c>
       <c r="AA39">
-        <v>360.6</v>
+        <v>157.19999999999999</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
       </c>
       <c r="C40">
-        <v>313.3</v>
+        <v>199.6</v>
       </c>
       <c r="D40">
-        <v>1440.1</v>
+        <v>914.2</v>
       </c>
       <c r="E40">
         <v>0</v>
       </c>
       <c r="F40">
-        <v>1440.1</v>
+        <v>914.2</v>
       </c>
       <c r="G40">
-        <v>56509.5</v>
+        <v>28476.6</v>
       </c>
       <c r="H40">
-        <v>151432.9</v>
+        <v>80048.899999999994</v>
       </c>
       <c r="I40">
-        <v>122054.1</v>
+        <v>57952.1</v>
       </c>
       <c r="J40">
-        <v>5145.3999999999996</v>
+        <v>5005.3</v>
       </c>
       <c r="K40">
-        <v>8884.2000000000007</v>
+        <v>7077.1</v>
       </c>
       <c r="L40">
         <v>0</v>
@@ -3926,81 +4046,81 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>130965.1</v>
+        <v>65029.2</v>
       </c>
       <c r="O40">
-        <v>140050.70000000001</v>
+        <v>73429.3</v>
       </c>
       <c r="P40">
-        <v>14029.6</v>
+        <v>12082.4</v>
       </c>
       <c r="Q40">
-        <v>-1371</v>
+        <v>872.5</v>
       </c>
       <c r="R40">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="S40">
-        <v>0</v>
+        <v>12600</v>
       </c>
       <c r="T40">
-        <v>11382.2</v>
+        <v>6619.6</v>
       </c>
       <c r="U40">
-        <v>4462.2</v>
+        <v>3786.4</v>
       </c>
       <c r="V40">
-        <v>3183.7</v>
+        <v>732.6</v>
       </c>
       <c r="W40">
-        <v>-165.1</v>
+        <v>-67.8</v>
       </c>
       <c r="X40">
-        <v>-11837.4</v>
+        <v>2896.8</v>
       </c>
       <c r="Y40">
         <v>0</v>
       </c>
       <c r="Z40">
-        <v>336.4</v>
+        <v>719.6</v>
       </c>
       <c r="AA40">
-        <v>313.3</v>
+        <v>199.6</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="B41" t="s">
         <v>66</v>
       </c>
       <c r="C41">
-        <v>294.5</v>
+        <v>155.6</v>
       </c>
       <c r="D41">
-        <v>1484.6</v>
+        <v>853.2</v>
       </c>
       <c r="E41">
         <v>0</v>
       </c>
       <c r="F41">
-        <v>1484.6</v>
+        <v>853.2</v>
       </c>
       <c r="G41">
-        <v>53646.9</v>
+        <v>28144.9</v>
       </c>
       <c r="H41">
-        <v>152082</v>
+        <v>80723.399999999994</v>
       </c>
       <c r="I41">
-        <v>122589.1</v>
+        <v>58445.8</v>
       </c>
       <c r="J41">
-        <v>5129.3</v>
+        <v>4447.3</v>
       </c>
       <c r="K41">
-        <v>9142.7000000000007</v>
+        <v>7684.6</v>
       </c>
       <c r="L41">
         <v>0</v>
@@ -4009,128 +4129,3448 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>131755.70000000001</v>
+        <v>66130.399999999994</v>
       </c>
       <c r="O41">
-        <v>140502.9</v>
+        <v>73954.7</v>
       </c>
       <c r="P41">
-        <v>14272</v>
+        <v>12131.9</v>
       </c>
       <c r="Q41">
-        <v>275.3</v>
+        <v>-34.700000000000003</v>
       </c>
       <c r="R41">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="S41">
-        <v>0</v>
+        <v>12700</v>
       </c>
       <c r="T41">
-        <v>11579.1</v>
+        <v>6768.7</v>
       </c>
       <c r="U41">
-        <v>4737.5</v>
+        <v>3918.2</v>
       </c>
       <c r="V41">
-        <v>-77.900000000000006</v>
+        <v>152</v>
       </c>
       <c r="W41">
-        <v>-150.5</v>
+        <v>-69.099999999999994</v>
       </c>
       <c r="X41">
-        <v>-838.3</v>
+        <v>152.80000000000001</v>
       </c>
       <c r="Y41">
         <v>0</v>
       </c>
       <c r="Z41">
-        <v>-3537.8</v>
+        <v>-3771</v>
       </c>
       <c r="AA41">
-        <v>294.5</v>
+        <v>155.6</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
-        <v>44196</v>
+        <v>40543</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
       </c>
       <c r="C42">
+        <v>157.1</v>
+      </c>
+      <c r="D42">
+        <v>862.4</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>862.4</v>
+      </c>
+      <c r="G42">
+        <v>32720.6</v>
+      </c>
+      <c r="H42">
+        <v>83843.899999999994</v>
+      </c>
+      <c r="I42">
+        <v>64195.7</v>
+      </c>
+      <c r="J42">
+        <v>4027.9</v>
+      </c>
+      <c r="K42">
+        <v>6835.5</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>71895.199999999997</v>
+      </c>
+      <c r="O42">
+        <v>77013.600000000006</v>
+      </c>
+      <c r="P42">
+        <v>11737.8</v>
+      </c>
+      <c r="Q42">
+        <v>-671.5</v>
+      </c>
+      <c r="R42">
+        <v>40543</v>
+      </c>
+      <c r="S42">
+        <v>12800</v>
+      </c>
+      <c r="T42">
+        <v>6830.3</v>
+      </c>
+      <c r="U42">
+        <v>2978.1</v>
+      </c>
+      <c r="V42">
+        <v>-129.19999999999999</v>
+      </c>
+      <c r="W42">
+        <v>-68.599999999999994</v>
+      </c>
+      <c r="X42">
+        <v>3461.4</v>
+      </c>
+      <c r="Y42">
+        <v>48.1</v>
+      </c>
+      <c r="Z42">
+        <v>125.6</v>
+      </c>
+      <c r="AA42">
+        <v>157.1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>40633</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>151</v>
+      </c>
+      <c r="D43">
+        <v>882.9</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>882.9</v>
+      </c>
+      <c r="G43">
+        <v>39686.6</v>
+      </c>
+      <c r="H43">
+        <v>92679.2</v>
+      </c>
+      <c r="I43">
+        <v>71075.399999999994</v>
+      </c>
+      <c r="J43">
+        <v>4705.7</v>
+      </c>
+      <c r="K43">
+        <v>8618.6</v>
+      </c>
+      <c r="L43">
+        <v>-2275</v>
+      </c>
+      <c r="M43">
+        <v>-208</v>
+      </c>
+      <c r="N43">
+        <v>79694</v>
+      </c>
+      <c r="O43">
+        <v>85751</v>
+      </c>
+      <c r="P43">
+        <v>13324.3</v>
+      </c>
+      <c r="Q43">
+        <v>774.8</v>
+      </c>
+      <c r="R43">
+        <v>40633</v>
+      </c>
+      <c r="S43">
+        <v>13000</v>
+      </c>
+      <c r="T43">
+        <v>6928.2</v>
+      </c>
+      <c r="U43">
+        <v>3683</v>
+      </c>
+      <c r="V43">
+        <v>72.900000000000006</v>
+      </c>
+      <c r="W43">
+        <v>-68.599999999999994</v>
+      </c>
+      <c r="X43">
+        <v>8684.6</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>-3530.2</v>
+      </c>
+      <c r="AA43">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>40724</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>152</v>
+      </c>
+      <c r="D44">
+        <v>934.8</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>934.8</v>
+      </c>
+      <c r="G44">
+        <v>43706.7</v>
+      </c>
+      <c r="H44">
+        <v>97398.3</v>
+      </c>
+      <c r="I44">
+        <v>77500.899999999994</v>
+      </c>
+      <c r="J44">
+        <v>4598</v>
+      </c>
+      <c r="K44">
+        <v>6306.8</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>83807.7</v>
+      </c>
+      <c r="O44">
+        <v>90372.9</v>
+      </c>
+      <c r="P44">
+        <v>10904.8</v>
+      </c>
+      <c r="Q44">
+        <v>1506.3</v>
+      </c>
+      <c r="R44">
+        <v>40724</v>
+      </c>
+      <c r="S44">
+        <v>13600</v>
+      </c>
+      <c r="T44">
+        <v>7025.4</v>
+      </c>
+      <c r="U44">
+        <v>5145.7</v>
+      </c>
+      <c r="V44">
+        <v>490.3</v>
+      </c>
+      <c r="W44">
+        <v>-68.5</v>
+      </c>
+      <c r="X44">
+        <v>4025.2</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>-1729.5</v>
+      </c>
+      <c r="AA44">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>40816</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <v>170.4</v>
+      </c>
+      <c r="D45">
+        <v>954</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>954</v>
+      </c>
+      <c r="G45">
+        <v>37986.699999999997</v>
+      </c>
+      <c r="H45">
+        <v>96098.2</v>
+      </c>
+      <c r="I45">
+        <v>78514</v>
+      </c>
+      <c r="J45">
+        <v>4547.7</v>
+      </c>
+      <c r="K45">
+        <v>3724.9</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>82238.899999999994</v>
+      </c>
+      <c r="O45">
+        <v>88945.4</v>
+      </c>
+      <c r="P45">
+        <v>8272.6</v>
+      </c>
+      <c r="Q45">
+        <v>-762.5</v>
+      </c>
+      <c r="R45">
+        <v>40816</v>
+      </c>
+      <c r="S45">
+        <v>14000</v>
+      </c>
+      <c r="T45">
+        <v>7152.8</v>
+      </c>
+      <c r="U45">
+        <v>4558.3999999999996</v>
+      </c>
+      <c r="V45">
+        <v>-700.2</v>
+      </c>
+      <c r="W45">
+        <v>-68.400000000000006</v>
+      </c>
+      <c r="X45">
+        <v>-2061.6</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>-6642.8</v>
+      </c>
+      <c r="AA45">
+        <v>170.4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>40908</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <v>130.19999999999999</v>
+      </c>
+      <c r="D46">
+        <v>943.1</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>943.1</v>
+      </c>
+      <c r="G46">
+        <v>38999.1</v>
+      </c>
+      <c r="H46">
+        <v>100223.7</v>
+      </c>
+      <c r="I46">
+        <v>82677.5</v>
+      </c>
+      <c r="J46">
+        <v>4492</v>
+      </c>
+      <c r="K46">
+        <v>3888.2</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>86627</v>
+      </c>
+      <c r="O46">
+        <v>93106.4</v>
+      </c>
+      <c r="P46">
+        <v>8425.1</v>
+      </c>
+      <c r="Q46">
+        <v>-21.3</v>
+      </c>
+      <c r="R46">
+        <v>40908</v>
+      </c>
+      <c r="S46">
+        <v>14100</v>
+      </c>
+      <c r="T46">
+        <v>7117.3</v>
+      </c>
+      <c r="U46">
+        <v>4436.6000000000004</v>
+      </c>
+      <c r="V46">
+        <v>1391.3</v>
+      </c>
+      <c r="W46">
+        <v>-68.2</v>
+      </c>
+      <c r="X46">
+        <v>5155.3999999999996</v>
+      </c>
+      <c r="Y46">
+        <v>44.9</v>
+      </c>
+      <c r="Z46">
+        <v>463.5</v>
+      </c>
+      <c r="AA46">
+        <v>130.19999999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>40999</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
+        <v>161.19999999999999</v>
+      </c>
+      <c r="D47">
+        <v>960.4</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>960.4</v>
+      </c>
+      <c r="G47">
+        <v>30433.599999999999</v>
+      </c>
+      <c r="H47">
+        <v>91604.3</v>
+      </c>
+      <c r="I47">
+        <v>73933</v>
+      </c>
+      <c r="J47">
+        <v>4141.2</v>
+      </c>
+      <c r="K47">
+        <v>4581.3999999999996</v>
+      </c>
+      <c r="L47">
+        <v>-914.8</v>
+      </c>
+      <c r="M47">
+        <v>-350.9</v>
+      </c>
+      <c r="N47">
+        <v>78564.5</v>
+      </c>
+      <c r="O47">
+        <v>84381.1</v>
+      </c>
+      <c r="P47">
+        <v>8766.6</v>
+      </c>
+      <c r="Q47">
+        <v>-35</v>
+      </c>
+      <c r="R47">
+        <v>40999</v>
+      </c>
+      <c r="S47">
+        <v>13900</v>
+      </c>
+      <c r="T47">
+        <v>7223.2</v>
+      </c>
+      <c r="U47">
+        <v>4290.3</v>
+      </c>
+      <c r="V47">
+        <v>757.6</v>
+      </c>
+      <c r="W47">
+        <v>-67.5</v>
+      </c>
+      <c r="X47">
+        <v>-8787.2999999999993</v>
+      </c>
+      <c r="Y47">
+        <v>44</v>
+      </c>
+      <c r="Z47">
+        <v>-2743.1</v>
+      </c>
+      <c r="AA47">
+        <v>161.19999999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>41090</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>179.6</v>
+      </c>
+      <c r="D48">
+        <v>983.5</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>983.5</v>
+      </c>
+      <c r="G48">
+        <v>33888.400000000001</v>
+      </c>
+      <c r="H48">
+        <v>94455.9</v>
+      </c>
+      <c r="I48">
+        <v>76995.899999999994</v>
+      </c>
+      <c r="J48">
+        <v>4013.5</v>
+      </c>
+      <c r="K48">
+        <v>3876.9</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>80941.899999999994</v>
+      </c>
+      <c r="O48">
+        <v>87065.600000000006</v>
+      </c>
+      <c r="P48">
+        <v>7933.5</v>
+      </c>
+      <c r="Q48">
+        <v>-686</v>
+      </c>
+      <c r="R48">
+        <v>41090</v>
+      </c>
+      <c r="S48">
+        <v>14000</v>
+      </c>
+      <c r="T48">
+        <v>7390.3</v>
+      </c>
+      <c r="U48">
+        <v>3616.8</v>
+      </c>
+      <c r="V48">
+        <v>-218.3</v>
+      </c>
+      <c r="W48">
+        <v>-68.599999999999994</v>
+      </c>
+      <c r="X48">
+        <v>2909.3</v>
+      </c>
+      <c r="Y48">
+        <v>43.1</v>
+      </c>
+      <c r="Z48">
+        <v>2902.1</v>
+      </c>
+      <c r="AA48">
+        <v>179.6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>41182</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49">
+        <v>178.8</v>
+      </c>
+      <c r="D49">
+        <v>962.5</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>962.5</v>
+      </c>
+      <c r="G49">
+        <v>31814.5</v>
+      </c>
+      <c r="H49">
+        <v>93632.5</v>
+      </c>
+      <c r="I49">
+        <v>76931.600000000006</v>
+      </c>
+      <c r="J49">
+        <v>4273.5</v>
+      </c>
+      <c r="K49">
+        <v>1997.3</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>78994.7</v>
+      </c>
+      <c r="O49">
+        <v>86100.3</v>
+      </c>
+      <c r="P49">
+        <v>6313</v>
+      </c>
+      <c r="Q49">
+        <v>-197.6</v>
+      </c>
+      <c r="R49">
+        <v>41182</v>
+      </c>
+      <c r="S49">
+        <v>14200</v>
+      </c>
+      <c r="T49">
+        <v>7532.2</v>
+      </c>
+      <c r="U49">
+        <v>3970.1</v>
+      </c>
+      <c r="V49">
+        <v>251.9</v>
+      </c>
+      <c r="W49">
+        <v>-73.400000000000006</v>
+      </c>
+      <c r="X49">
+        <v>-1173.5</v>
+      </c>
+      <c r="Y49">
+        <v>42.2</v>
+      </c>
+      <c r="Z49">
+        <v>-782.2</v>
+      </c>
+      <c r="AA49">
+        <v>178.8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>41274</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50">
+        <v>167.7</v>
+      </c>
+      <c r="D50">
+        <v>964.7</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>964.7</v>
+      </c>
+      <c r="G50">
+        <v>34959.199999999997</v>
+      </c>
+      <c r="H50">
+        <v>97463.8</v>
+      </c>
+      <c r="I50">
+        <v>81407.8</v>
+      </c>
+      <c r="J50">
+        <v>3253.6</v>
+      </c>
+      <c r="K50">
+        <v>2462.9</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>84740.800000000003</v>
+      </c>
+      <c r="O50">
+        <v>89936.8</v>
+      </c>
+      <c r="P50">
+        <v>6567.3</v>
+      </c>
+      <c r="Q50">
+        <v>356</v>
+      </c>
+      <c r="R50">
+        <v>41274</v>
+      </c>
+      <c r="S50">
+        <v>14200</v>
+      </c>
+      <c r="T50">
+        <v>7527</v>
+      </c>
+      <c r="U50">
+        <v>3778.1</v>
+      </c>
+      <c r="V50">
+        <v>23.2</v>
+      </c>
+      <c r="W50">
+        <v>-144.80000000000001</v>
+      </c>
+      <c r="X50">
+        <v>3978.6</v>
+      </c>
+      <c r="Y50">
+        <v>41.2</v>
+      </c>
+      <c r="Z50">
+        <v>-1424.6</v>
+      </c>
+      <c r="AA50">
+        <v>167.7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>41364</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51">
+        <v>164</v>
+      </c>
+      <c r="D51">
+        <v>971.4</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>971.4</v>
+      </c>
+      <c r="G51">
+        <v>32401.5</v>
+      </c>
+      <c r="H51">
+        <v>93156.800000000003</v>
+      </c>
+      <c r="I51">
+        <v>75822.100000000006</v>
+      </c>
+      <c r="J51">
+        <v>3837.3</v>
+      </c>
+      <c r="K51">
+        <v>3785.4</v>
+      </c>
+      <c r="L51">
+        <v>-209.6</v>
+      </c>
+      <c r="M51">
+        <v>-201</v>
+      </c>
+      <c r="N51">
+        <v>79667.600000000006</v>
+      </c>
+      <c r="O51">
+        <v>85544.7</v>
+      </c>
+      <c r="P51">
+        <v>7662.9</v>
+      </c>
+      <c r="Q51">
+        <v>20.8</v>
+      </c>
+      <c r="R51">
+        <v>41364</v>
+      </c>
+      <c r="S51">
+        <v>14200</v>
+      </c>
+      <c r="T51">
+        <v>7612.1</v>
+      </c>
+      <c r="U51">
+        <v>2875</v>
+      </c>
+      <c r="V51">
+        <v>312.5</v>
+      </c>
+      <c r="W51">
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="X51">
+        <v>-4667.6000000000004</v>
+      </c>
+      <c r="Y51">
+        <v>40.200000000000003</v>
+      </c>
+      <c r="Z51">
+        <v>1011.8</v>
+      </c>
+      <c r="AA51">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>41455</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52">
+        <v>191.1</v>
+      </c>
+      <c r="D52">
+        <v>1015.5</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>1015.5</v>
+      </c>
+      <c r="G52">
+        <v>36323.5</v>
+      </c>
+      <c r="H52">
+        <v>97236</v>
+      </c>
+      <c r="I52">
+        <v>76534.899999999994</v>
+      </c>
+      <c r="J52">
+        <v>3617.2</v>
+      </c>
+      <c r="K52">
+        <v>6119.2</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>82715.399999999994</v>
+      </c>
+      <c r="O52">
+        <v>89511.4</v>
+      </c>
+      <c r="P52">
+        <v>9775.5</v>
+      </c>
+      <c r="Q52">
+        <v>857.4</v>
+      </c>
+      <c r="R52">
+        <v>41455</v>
+      </c>
+      <c r="S52">
+        <v>14500</v>
+      </c>
+      <c r="T52">
+        <v>7724.6</v>
+      </c>
+      <c r="U52">
+        <v>3762.1</v>
+      </c>
+      <c r="V52">
+        <v>-1594.2</v>
+      </c>
+      <c r="W52">
+        <v>-70.7</v>
+      </c>
+      <c r="X52">
+        <v>4231.1000000000004</v>
+      </c>
+      <c r="Y52">
+        <v>39.1</v>
+      </c>
+      <c r="Z52">
+        <v>-225.9</v>
+      </c>
+      <c r="AA52">
+        <v>191.1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>41547</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53">
+        <v>206.5</v>
+      </c>
+      <c r="D53">
+        <v>1042.2</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>1042.2</v>
+      </c>
+      <c r="G53">
+        <v>33619.5</v>
+      </c>
+      <c r="H53">
+        <v>95969.5</v>
+      </c>
+      <c r="I53">
+        <v>78161.7</v>
+      </c>
+      <c r="J53">
+        <v>3229.1</v>
+      </c>
+      <c r="K53">
+        <v>4488.6000000000004</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>82705.899999999994</v>
+      </c>
+      <c r="O53">
+        <v>88152.4</v>
+      </c>
+      <c r="P53">
+        <v>7755.7</v>
+      </c>
+      <c r="Q53">
+        <v>-1940.2</v>
+      </c>
+      <c r="R53">
+        <v>41547</v>
+      </c>
+      <c r="S53">
+        <v>14600</v>
+      </c>
+      <c r="T53">
+        <v>7817.1</v>
+      </c>
+      <c r="U53">
+        <v>1825.3</v>
+      </c>
+      <c r="V53">
+        <v>2242.6</v>
+      </c>
+      <c r="W53">
+        <v>-74.5</v>
+      </c>
+      <c r="X53">
+        <v>-1989.3</v>
+      </c>
+      <c r="Y53">
+        <v>38</v>
+      </c>
+      <c r="Z53">
+        <v>837.6</v>
+      </c>
+      <c r="AA53">
+        <v>206.5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>41639</v>
+      </c>
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54">
+        <v>169.7</v>
+      </c>
+      <c r="D54">
+        <v>1040.2</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>1040.2</v>
+      </c>
+      <c r="G54">
+        <v>39802.400000000001</v>
+      </c>
+      <c r="H54">
+        <v>102947.3</v>
+      </c>
+      <c r="I54">
+        <v>84098.1</v>
+      </c>
+      <c r="J54">
+        <v>3311</v>
+      </c>
+      <c r="K54">
+        <v>4615.8999999999996</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>89408.6</v>
+      </c>
+      <c r="O54">
+        <v>95035.3</v>
+      </c>
+      <c r="P54">
+        <v>8598.7999999999993</v>
+      </c>
+      <c r="Q54">
+        <v>471.7</v>
+      </c>
+      <c r="R54">
+        <v>41639</v>
+      </c>
+      <c r="S54">
+        <v>14800</v>
+      </c>
+      <c r="T54">
+        <v>7912</v>
+      </c>
+      <c r="U54">
+        <v>3192</v>
+      </c>
+      <c r="V54">
+        <v>-121.6</v>
+      </c>
+      <c r="W54">
+        <v>-74.3</v>
+      </c>
+      <c r="X54">
+        <v>6814.1</v>
+      </c>
+      <c r="Y54">
+        <v>36.9</v>
+      </c>
+      <c r="Z54">
+        <v>-1978.8</v>
+      </c>
+      <c r="AA54">
+        <v>169.7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>41729</v>
+      </c>
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55">
+        <v>181.4</v>
+      </c>
+      <c r="D55">
+        <v>1037.5</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>1037.5</v>
+      </c>
+      <c r="G55">
+        <v>37642.199999999997</v>
+      </c>
+      <c r="H55">
+        <v>103832.6</v>
+      </c>
+      <c r="I55">
+        <v>86267.7</v>
+      </c>
+      <c r="J55">
+        <v>3834.3</v>
+      </c>
+      <c r="K55">
+        <v>3003.1</v>
+      </c>
+      <c r="L55">
+        <v>-1185.0999999999999</v>
+      </c>
+      <c r="M55">
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="N55">
+        <v>89463.4</v>
+      </c>
+      <c r="O55">
+        <v>95884.3</v>
+      </c>
+      <c r="P55">
+        <v>7008.3</v>
+      </c>
+      <c r="Q55">
+        <v>513.9</v>
+      </c>
+      <c r="R55">
+        <v>41729</v>
+      </c>
+      <c r="S55">
+        <v>14900</v>
+      </c>
+      <c r="T55">
+        <v>7948.3</v>
+      </c>
+      <c r="U55">
+        <v>2486.3000000000002</v>
+      </c>
+      <c r="V55">
+        <v>538.5</v>
+      </c>
+      <c r="W55">
+        <v>-75</v>
+      </c>
+      <c r="X55">
+        <v>788.1</v>
+      </c>
+      <c r="Y55">
+        <v>35.9</v>
+      </c>
+      <c r="Z55">
+        <v>-676.1</v>
+      </c>
+      <c r="AA55">
+        <v>181.4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>41820</v>
+      </c>
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56">
+        <v>181.9</v>
+      </c>
+      <c r="D56">
+        <v>1081.7</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>1081.7</v>
+      </c>
+      <c r="G56">
+        <v>38629.599999999999</v>
+      </c>
+      <c r="H56">
+        <v>105761.2</v>
+      </c>
+      <c r="I56">
+        <v>88862.5</v>
+      </c>
+      <c r="J56">
+        <v>3357.9</v>
+      </c>
+      <c r="K56">
+        <v>2535.3000000000002</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>91494</v>
+      </c>
+      <c r="O56">
+        <v>97718.6</v>
+      </c>
+      <c r="P56">
+        <v>5962.7</v>
+      </c>
+      <c r="Q56">
+        <v>268.89999999999998</v>
+      </c>
+      <c r="R56">
+        <v>41820</v>
+      </c>
+      <c r="S56">
+        <v>15100</v>
+      </c>
+      <c r="T56">
+        <v>8042.6</v>
+      </c>
+      <c r="U56">
+        <v>2824.7</v>
+      </c>
+      <c r="V56">
+        <v>1001.5</v>
+      </c>
+      <c r="W56">
+        <v>-74.900000000000006</v>
+      </c>
+      <c r="X56">
+        <v>1426.9</v>
+      </c>
+      <c r="Y56">
+        <v>34.5</v>
+      </c>
+      <c r="Z56">
+        <v>84.4</v>
+      </c>
+      <c r="AA56">
+        <v>181.9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>41912</v>
+      </c>
+      <c r="B57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57">
+        <v>204.5</v>
+      </c>
+      <c r="D57">
+        <v>1078.9000000000001</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>1078.9000000000001</v>
+      </c>
+      <c r="G57">
+        <v>45685.5</v>
+      </c>
+      <c r="H57">
+        <v>111153.7</v>
+      </c>
+      <c r="I57">
+        <v>91722.5</v>
+      </c>
+      <c r="J57">
+        <v>3339.6</v>
+      </c>
+      <c r="K57">
+        <v>4924.3</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>96703.8</v>
+      </c>
+      <c r="O57">
+        <v>102611.1</v>
+      </c>
+      <c r="P57">
+        <v>8297.1</v>
+      </c>
+      <c r="Q57">
+        <v>-1026.3</v>
+      </c>
+      <c r="R57">
+        <v>41912</v>
+      </c>
+      <c r="S57">
+        <v>15200</v>
+      </c>
+      <c r="T57">
+        <v>8542.6</v>
+      </c>
+      <c r="U57">
+        <v>1628.9</v>
+      </c>
+      <c r="V57">
+        <v>-266.5</v>
+      </c>
+      <c r="W57">
+        <v>-75.5</v>
+      </c>
+      <c r="X57">
+        <v>5276.1</v>
+      </c>
+      <c r="Y57">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="Z57">
+        <v>2284</v>
+      </c>
+      <c r="AA57">
+        <v>204.5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>42004</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58">
+        <v>244</v>
+      </c>
+      <c r="D58">
+        <v>1127.0999999999999</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>1127.0999999999999</v>
+      </c>
+      <c r="G58">
+        <v>41195.199999999997</v>
+      </c>
+      <c r="H58">
+        <v>109946.5</v>
+      </c>
+      <c r="I58">
+        <v>90757</v>
+      </c>
+      <c r="J58">
+        <v>3123.8</v>
+      </c>
+      <c r="K58">
+        <v>4557.2</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>95608</v>
+      </c>
+      <c r="O58">
+        <v>101497.60000000001</v>
+      </c>
+      <c r="P58">
+        <v>7946.5</v>
+      </c>
+      <c r="Q58">
+        <v>131.69999999999999</v>
+      </c>
+      <c r="R58">
+        <v>42004</v>
+      </c>
+      <c r="S58">
+        <v>15400</v>
+      </c>
+      <c r="T58">
+        <v>8448.9</v>
+      </c>
+      <c r="U58">
+        <v>3113.3</v>
+      </c>
+      <c r="V58">
+        <v>-337.5</v>
+      </c>
+      <c r="W58">
+        <v>-77.5</v>
+      </c>
+      <c r="X58">
+        <v>-417.4</v>
+      </c>
+      <c r="Y58">
+        <v>31.8</v>
+      </c>
+      <c r="Z58">
+        <v>-1817.5</v>
+      </c>
+      <c r="AA58">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>42094</v>
+      </c>
+      <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59">
+        <v>230.7</v>
+      </c>
+      <c r="D59">
+        <v>1139</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>1139</v>
+      </c>
+      <c r="G59">
+        <v>36416.5</v>
+      </c>
+      <c r="H59">
+        <v>106952</v>
+      </c>
+      <c r="I59">
+        <v>86736.5</v>
+      </c>
+      <c r="J59">
+        <v>3142.9</v>
+      </c>
+      <c r="K59">
+        <v>5249.4</v>
+      </c>
+      <c r="L59">
+        <v>-794.1</v>
+      </c>
+      <c r="M59">
+        <v>-230.1</v>
+      </c>
+      <c r="N59">
+        <v>92044.2</v>
+      </c>
+      <c r="O59">
+        <v>98344.4</v>
+      </c>
+      <c r="P59">
+        <v>8422.7999999999993</v>
+      </c>
+      <c r="Q59">
+        <v>1024.2</v>
+      </c>
+      <c r="R59">
+        <v>42094</v>
+      </c>
+      <c r="S59">
+        <v>15600</v>
+      </c>
+      <c r="T59">
+        <v>8607.6</v>
+      </c>
+      <c r="U59">
+        <v>2688.7</v>
+      </c>
+      <c r="V59">
+        <v>490.8</v>
+      </c>
+      <c r="W59">
+        <v>-86.5</v>
+      </c>
+      <c r="X59">
+        <v>-2191.3000000000002</v>
+      </c>
+      <c r="Y59">
+        <v>30.5</v>
+      </c>
+      <c r="Z59">
+        <v>-4371</v>
+      </c>
+      <c r="AA59">
+        <v>230.7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>42185</v>
+      </c>
+      <c r="B60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60">
+        <v>269.2</v>
+      </c>
+      <c r="D60">
+        <v>1265.9000000000001</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>1265.9000000000001</v>
+      </c>
+      <c r="G60">
+        <v>47382.5</v>
+      </c>
+      <c r="H60">
+        <v>119942.9</v>
+      </c>
+      <c r="I60">
+        <v>100687.9</v>
+      </c>
+      <c r="J60">
+        <v>3104.6</v>
+      </c>
+      <c r="K60">
+        <v>4849.3999999999996</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>105580.8</v>
+      </c>
+      <c r="O60">
+        <v>111193.60000000001</v>
+      </c>
+      <c r="P60">
+        <v>7986.2</v>
+      </c>
+      <c r="Q60">
+        <v>3071</v>
+      </c>
+      <c r="R60">
+        <v>42185</v>
+      </c>
+      <c r="S60">
+        <v>15800</v>
+      </c>
+      <c r="T60">
+        <v>8749.2999999999993</v>
+      </c>
+      <c r="U60">
+        <v>5572.9</v>
+      </c>
+      <c r="V60">
+        <v>1036.4000000000001</v>
+      </c>
+      <c r="W60">
+        <v>-82.9</v>
+      </c>
+      <c r="X60">
+        <v>12421.2</v>
+      </c>
+      <c r="Y60">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="Z60">
+        <v>-3798.6</v>
+      </c>
+      <c r="AA60">
+        <v>269.2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>42277</v>
+      </c>
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61">
+        <v>234.6</v>
+      </c>
+      <c r="D61">
+        <v>1165.3</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>1165.3</v>
+      </c>
+      <c r="G61">
+        <v>47858.2</v>
+      </c>
+      <c r="H61">
+        <v>119995.2</v>
+      </c>
+      <c r="I61">
+        <v>99935.9</v>
+      </c>
+      <c r="J61">
+        <v>3137.8</v>
+      </c>
+      <c r="K61">
+        <v>5598.3</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>105811.5</v>
+      </c>
+      <c r="O61">
+        <v>111210.7</v>
+      </c>
+      <c r="P61">
+        <v>8767.2000000000007</v>
+      </c>
+      <c r="Q61">
+        <v>-2671.1</v>
+      </c>
+      <c r="R61">
+        <v>42277</v>
+      </c>
+      <c r="S61">
+        <v>16000</v>
+      </c>
+      <c r="T61">
+        <v>8784.5</v>
+      </c>
+      <c r="U61">
+        <v>2896.5</v>
+      </c>
+      <c r="V61">
+        <v>-1043.4000000000001</v>
+      </c>
+      <c r="W61">
+        <v>-89.6</v>
+      </c>
+      <c r="X61">
+        <v>1339.5</v>
+      </c>
+      <c r="Y61">
+        <v>31.1</v>
+      </c>
+      <c r="Z61">
+        <v>3311</v>
+      </c>
+      <c r="AA61">
+        <v>234.6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>42369</v>
+      </c>
+      <c r="B62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62">
+        <v>239.3</v>
+      </c>
+      <c r="D62">
+        <v>1174.5999999999999</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>1174.5999999999999</v>
+      </c>
+      <c r="G62">
+        <v>42834.400000000001</v>
+      </c>
+      <c r="H62">
+        <v>116749.6</v>
+      </c>
+      <c r="I62">
+        <v>96868.9</v>
+      </c>
+      <c r="J62">
+        <v>3116.3</v>
+      </c>
+      <c r="K62">
+        <v>5897.1</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>102812.6</v>
+      </c>
+      <c r="O62">
+        <v>108043.7</v>
+      </c>
+      <c r="P62">
+        <v>9043.1</v>
+      </c>
+      <c r="Q62">
+        <v>1973.4</v>
+      </c>
+      <c r="R62">
+        <v>42369</v>
+      </c>
+      <c r="S62">
+        <v>16200</v>
+      </c>
+      <c r="T62">
+        <v>8705.9</v>
+      </c>
+      <c r="U62">
+        <v>6432.7</v>
+      </c>
+      <c r="V62">
+        <v>1350.6</v>
+      </c>
+      <c r="W62">
+        <v>-89.4</v>
+      </c>
+      <c r="X62">
+        <v>-3035.3</v>
+      </c>
+      <c r="Y62">
+        <v>29.7</v>
+      </c>
+      <c r="Z62">
+        <v>782.1</v>
+      </c>
+      <c r="AA62">
+        <v>239.3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>42460</v>
+      </c>
+      <c r="B63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63">
+        <v>245.4</v>
+      </c>
+      <c r="D63">
+        <v>1188</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>1188</v>
+      </c>
+      <c r="G63">
+        <v>41230.5</v>
+      </c>
+      <c r="H63">
+        <v>117798.8</v>
+      </c>
+      <c r="I63">
+        <v>97659.6</v>
+      </c>
+      <c r="J63">
+        <v>3151.3</v>
+      </c>
+      <c r="K63">
+        <v>6118.1</v>
+      </c>
+      <c r="L63">
+        <v>-154.80000000000001</v>
+      </c>
+      <c r="M63">
+        <v>-1.4</v>
+      </c>
+      <c r="N63">
+        <v>103823</v>
+      </c>
+      <c r="O63">
+        <v>108966</v>
+      </c>
+      <c r="P63">
+        <v>9297.7000000000007</v>
+      </c>
+      <c r="Q63">
+        <v>569.9</v>
+      </c>
+      <c r="R63">
+        <v>42460</v>
+      </c>
+      <c r="S63">
+        <v>16300</v>
+      </c>
+      <c r="T63">
+        <v>8832.7999999999993</v>
+      </c>
+      <c r="U63">
+        <v>5215</v>
+      </c>
+      <c r="V63">
+        <v>-295.5</v>
+      </c>
+      <c r="W63">
+        <v>-88.7</v>
+      </c>
+      <c r="X63">
+        <v>-0.2</v>
+      </c>
+      <c r="Y63">
+        <v>28.3</v>
+      </c>
+      <c r="Z63">
+        <v>-708.1</v>
+      </c>
+      <c r="AA63">
+        <v>245.4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
+        <v>42551</v>
+      </c>
+      <c r="B64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64">
+        <v>263</v>
+      </c>
+      <c r="D64">
+        <v>1324.5</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>1324.5</v>
+      </c>
+      <c r="G64">
+        <v>43172.5</v>
+      </c>
+      <c r="H64">
+        <v>121509.6</v>
+      </c>
+      <c r="I64">
+        <v>99086.9</v>
+      </c>
+      <c r="J64">
+        <v>3165.5</v>
+      </c>
+      <c r="K64">
+        <v>8124.2</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>107255.3</v>
+      </c>
+      <c r="O64">
+        <v>112558.1</v>
+      </c>
+      <c r="P64">
+        <v>11316.6</v>
+      </c>
+      <c r="Q64">
+        <v>-1676.3</v>
+      </c>
+      <c r="R64">
+        <v>42551</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <v>8951.5</v>
+      </c>
+      <c r="U64">
+        <v>5326.1</v>
+      </c>
+      <c r="V64">
+        <v>-211.7</v>
+      </c>
+      <c r="W64">
+        <v>-88.1</v>
+      </c>
+      <c r="X64">
+        <v>4123.1000000000004</v>
+      </c>
+      <c r="Y64">
+        <v>26.9</v>
+      </c>
+      <c r="Z64">
+        <v>-2811.4</v>
+      </c>
+      <c r="AA64">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
+        <v>42643</v>
+      </c>
+      <c r="B65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65">
+        <v>257.60000000000002</v>
+      </c>
+      <c r="D65">
+        <v>1216.7</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>1216.7</v>
+      </c>
+      <c r="G65">
+        <v>38808.699999999997</v>
+      </c>
+      <c r="H65">
+        <v>120085</v>
+      </c>
+      <c r="I65">
+        <v>99471.3</v>
+      </c>
+      <c r="J65">
+        <v>3149.2</v>
+      </c>
+      <c r="K65">
+        <v>5066.6000000000004</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>104577</v>
+      </c>
+      <c r="O65">
+        <v>110505.2</v>
+      </c>
+      <c r="P65">
+        <v>8241.2999999999993</v>
+      </c>
+      <c r="Q65">
+        <v>-419.4</v>
+      </c>
+      <c r="R65">
+        <v>42643</v>
+      </c>
+      <c r="S65">
+        <v>16900</v>
+      </c>
+      <c r="T65">
+        <v>9579.7999999999993</v>
+      </c>
+      <c r="U65">
+        <v>4907.8</v>
+      </c>
+      <c r="V65">
+        <v>1178.7</v>
+      </c>
+      <c r="W65">
+        <v>-87.7</v>
+      </c>
+      <c r="X65">
+        <v>-1301.4000000000001</v>
+      </c>
+      <c r="Y65">
+        <v>25.5</v>
+      </c>
+      <c r="Z65">
+        <v>-2643</v>
+      </c>
+      <c r="AA65">
+        <v>257.60000000000002</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
+        <v>42735</v>
+      </c>
+      <c r="B66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66">
+        <v>266.5</v>
+      </c>
+      <c r="D66">
+        <v>1273.0999999999999</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>1273.0999999999999</v>
+      </c>
+      <c r="G66">
+        <v>42179.1</v>
+      </c>
+      <c r="H66">
+        <v>123926.9</v>
+      </c>
+      <c r="I66">
+        <v>101651.7</v>
+      </c>
+      <c r="J66">
+        <v>3081.9</v>
+      </c>
+      <c r="K66">
+        <v>6732.9</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>108421.8</v>
+      </c>
+      <c r="O66">
+        <v>114156.5</v>
+      </c>
+      <c r="P66">
+        <v>9837.7999999999993</v>
+      </c>
+      <c r="Q66">
+        <v>439.3</v>
+      </c>
+      <c r="R66">
+        <v>42735</v>
+      </c>
+      <c r="S66">
+        <v>17100</v>
+      </c>
+      <c r="T66">
+        <v>9770.4</v>
+      </c>
+      <c r="U66">
+        <v>5338.8</v>
+      </c>
+      <c r="V66">
+        <v>838.5</v>
+      </c>
+      <c r="W66">
+        <v>-91.9</v>
+      </c>
+      <c r="X66">
+        <v>4715.3999999999996</v>
+      </c>
+      <c r="Y66">
+        <v>23</v>
+      </c>
+      <c r="Z66">
+        <v>97.3</v>
+      </c>
+      <c r="AA66">
+        <v>266.5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A67" s="1">
+        <v>42825</v>
+      </c>
+      <c r="B67" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67">
+        <v>276.10000000000002</v>
+      </c>
+      <c r="D67">
+        <v>1285.4000000000001</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>1285.4000000000001</v>
+      </c>
+      <c r="G67">
+        <v>41695.800000000003</v>
+      </c>
+      <c r="H67">
+        <v>121488.7</v>
+      </c>
+      <c r="I67">
+        <v>100529.5</v>
+      </c>
+      <c r="J67">
+        <v>3076.7</v>
+      </c>
+      <c r="K67">
+        <v>5717</v>
+      </c>
+      <c r="L67">
+        <v>-1071</v>
+      </c>
+      <c r="M67">
+        <v>-3.8</v>
+      </c>
+      <c r="N67">
+        <v>106283.3</v>
+      </c>
+      <c r="O67">
+        <v>111511</v>
+      </c>
+      <c r="P67">
+        <v>8813</v>
+      </c>
+      <c r="Q67">
+        <v>-682.8</v>
+      </c>
+      <c r="R67">
+        <v>42825</v>
+      </c>
+      <c r="S67">
+        <v>17300</v>
+      </c>
+      <c r="T67">
+        <v>9977.7000000000007</v>
+      </c>
+      <c r="U67">
+        <v>4649.2</v>
+      </c>
+      <c r="V67">
+        <v>784.7</v>
+      </c>
+      <c r="W67">
+        <v>-92.8</v>
+      </c>
+      <c r="X67">
+        <v>-2707.6</v>
+      </c>
+      <c r="Y67">
+        <v>19.3</v>
+      </c>
+      <c r="Z67">
+        <v>441.3</v>
+      </c>
+      <c r="AA67">
+        <v>276.10000000000002</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A68" s="1">
+        <v>42916</v>
+      </c>
+      <c r="B68" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68">
+        <v>267.89999999999998</v>
+      </c>
+      <c r="D68">
+        <v>1328.2</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>1328.2</v>
+      </c>
+      <c r="G68">
+        <v>44661.5</v>
+      </c>
+      <c r="H68">
+        <v>125605.7</v>
+      </c>
+      <c r="I68">
+        <v>104312.1</v>
+      </c>
+      <c r="J68">
+        <v>3428.4</v>
+      </c>
+      <c r="K68">
+        <v>5976.7</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>110325.2</v>
+      </c>
+      <c r="O68">
+        <v>115537.8</v>
+      </c>
+      <c r="P68">
+        <v>9422.7999999999993</v>
+      </c>
+      <c r="Q68">
+        <v>1045.5999999999999</v>
+      </c>
+      <c r="R68">
+        <v>42916</v>
+      </c>
+      <c r="S68">
+        <v>17600</v>
+      </c>
+      <c r="T68">
+        <v>10067.9</v>
+      </c>
+      <c r="U68">
+        <v>5704.8</v>
+      </c>
+      <c r="V68">
+        <v>-472.1</v>
+      </c>
+      <c r="W68">
+        <v>-108</v>
+      </c>
+      <c r="X68">
+        <v>2891.7</v>
+      </c>
+      <c r="Y68">
+        <v>17.7</v>
+      </c>
+      <c r="Z68">
+        <v>1239.7</v>
+      </c>
+      <c r="AA68">
+        <v>267.89999999999998</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A69" s="1">
+        <v>43008</v>
+      </c>
+      <c r="B69" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69">
+        <v>298.39999999999998</v>
+      </c>
+      <c r="D69">
+        <v>1352.2</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>1352.2</v>
+      </c>
+      <c r="G69">
+        <v>48991.5</v>
+      </c>
+      <c r="H69">
+        <v>131400.20000000001</v>
+      </c>
+      <c r="I69">
+        <v>105810.6</v>
+      </c>
+      <c r="J69">
+        <v>3421.9</v>
+      </c>
+      <c r="K69">
+        <v>9909</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>115754.5</v>
+      </c>
+      <c r="O69">
+        <v>121235</v>
+      </c>
+      <c r="P69">
+        <v>13347</v>
+      </c>
+      <c r="Q69">
+        <v>-431.9</v>
+      </c>
+      <c r="R69">
+        <v>43008</v>
+      </c>
+      <c r="S69">
+        <v>0</v>
+      </c>
+      <c r="T69">
+        <v>10165.200000000001</v>
+      </c>
+      <c r="U69">
+        <v>5327.9</v>
+      </c>
+      <c r="V69">
+        <v>557.1</v>
+      </c>
+      <c r="W69">
+        <v>-92.8</v>
+      </c>
+      <c r="X69">
+        <v>4632.5</v>
+      </c>
+      <c r="Y69">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="Z69">
+        <v>-1712.7</v>
+      </c>
+      <c r="AA69">
+        <v>298.39999999999998</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A70" s="1">
+        <v>43100</v>
+      </c>
+      <c r="B70" t="s">
+        <v>95</v>
+      </c>
+      <c r="C70">
+        <v>356.6</v>
+      </c>
+      <c r="D70">
+        <v>1424.8</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>1424.8</v>
+      </c>
+      <c r="G70">
+        <v>55186.1</v>
+      </c>
+      <c r="H70">
+        <v>138590.5</v>
+      </c>
+      <c r="I70">
+        <v>112390.8</v>
+      </c>
+      <c r="J70">
+        <v>2904.4</v>
+      </c>
+      <c r="K70">
+        <v>10378.799999999999</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>123105.4</v>
+      </c>
+      <c r="O70">
+        <v>128374.3</v>
+      </c>
+      <c r="P70">
+        <v>13603.1</v>
+      </c>
+      <c r="Q70">
+        <v>-744.8</v>
+      </c>
+      <c r="R70">
+        <v>43100</v>
+      </c>
+      <c r="S70">
+        <v>18100</v>
+      </c>
+      <c r="T70">
+        <v>10216.200000000001</v>
+      </c>
+      <c r="U70">
+        <v>4539.1000000000004</v>
+      </c>
+      <c r="V70">
+        <v>850.7</v>
+      </c>
+      <c r="W70">
+        <v>-113</v>
+      </c>
+      <c r="X70">
+        <v>6436.1</v>
+      </c>
+      <c r="Y70">
+        <v>14.4</v>
+      </c>
+      <c r="Z70">
+        <v>-2143</v>
+      </c>
+      <c r="AA70">
+        <v>356.6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A71" s="1">
+        <v>43190</v>
+      </c>
+      <c r="B71" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71">
+        <v>381.6</v>
+      </c>
+      <c r="D71">
+        <v>1479</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>1479</v>
+      </c>
+      <c r="G71">
+        <v>43667.4</v>
+      </c>
+      <c r="H71">
+        <v>129672.2</v>
+      </c>
+      <c r="I71">
+        <v>105191.4</v>
+      </c>
+      <c r="J71">
+        <v>3185</v>
+      </c>
+      <c r="K71">
+        <v>8835.7999999999993</v>
+      </c>
+      <c r="L71">
+        <v>-1977.1</v>
+      </c>
+      <c r="M71">
+        <v>-1.7</v>
+      </c>
+      <c r="N71">
+        <v>114056.6</v>
+      </c>
+      <c r="O71">
+        <v>119446.2</v>
+      </c>
+      <c r="P71">
+        <v>12033.4</v>
+      </c>
+      <c r="Q71">
+        <v>1563.3</v>
+      </c>
+      <c r="R71">
+        <v>43190</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <v>10226</v>
+      </c>
+      <c r="U71">
+        <v>6111.4</v>
+      </c>
+      <c r="V71">
+        <v>-477.8</v>
+      </c>
+      <c r="W71">
+        <v>-100.9</v>
+      </c>
+      <c r="X71">
+        <v>-9167.2000000000007</v>
+      </c>
+      <c r="Y71">
+        <v>12.6</v>
+      </c>
+      <c r="Z71">
+        <v>-853.9</v>
+      </c>
+      <c r="AA71">
+        <v>381.6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A72" s="1">
+        <v>43281</v>
+      </c>
+      <c r="B72" t="s">
+        <v>97</v>
+      </c>
+      <c r="C72">
+        <v>390.4</v>
+      </c>
+      <c r="D72">
+        <v>1504.6</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>1504.6</v>
+      </c>
+      <c r="G72">
+        <v>48442.3</v>
+      </c>
+      <c r="H72">
+        <v>135106.20000000001</v>
+      </c>
+      <c r="I72">
+        <v>106524.9</v>
+      </c>
+      <c r="J72">
+        <v>3175</v>
+      </c>
+      <c r="K72">
+        <v>12588.3</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>119139.9</v>
+      </c>
+      <c r="O72">
+        <v>124748.6</v>
+      </c>
+      <c r="P72">
+        <v>15774.1</v>
+      </c>
+      <c r="Q72">
+        <v>-1193.3</v>
+      </c>
+      <c r="R72">
+        <v>43281</v>
+      </c>
+      <c r="S72">
+        <v>0</v>
+      </c>
+      <c r="T72">
+        <v>10357.6</v>
+      </c>
+      <c r="U72">
+        <v>4898.1000000000004</v>
+      </c>
+      <c r="V72">
+        <v>332.3</v>
+      </c>
+      <c r="W72">
+        <v>-111.9</v>
+      </c>
+      <c r="X72">
+        <v>6210.8</v>
+      </c>
+      <c r="Y72">
+        <v>10.8</v>
+      </c>
+      <c r="Z72">
+        <v>-931.8</v>
+      </c>
+      <c r="AA72">
+        <v>390.4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A73" s="1">
+        <v>43373</v>
+      </c>
+      <c r="B73" t="s">
+        <v>98</v>
+      </c>
+      <c r="C73">
+        <v>374.5</v>
+      </c>
+      <c r="D73">
+        <v>1483.3</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>1483.3</v>
+      </c>
+      <c r="G73">
+        <v>45640.1</v>
+      </c>
+      <c r="H73">
+        <v>132378.5</v>
+      </c>
+      <c r="I73">
+        <v>104891.3</v>
+      </c>
+      <c r="J73">
+        <v>3361.4</v>
+      </c>
+      <c r="K73">
+        <v>11052.4</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>115967.9</v>
+      </c>
+      <c r="O73">
+        <v>122014</v>
+      </c>
+      <c r="P73">
+        <v>14422.7</v>
+      </c>
+      <c r="Q73">
+        <v>185.3</v>
+      </c>
+      <c r="R73">
+        <v>43373</v>
+      </c>
+      <c r="S73">
+        <v>0</v>
+      </c>
+      <c r="T73">
+        <v>10364.5</v>
+      </c>
+      <c r="U73">
+        <v>5116.3999999999996</v>
+      </c>
+      <c r="V73">
+        <v>1453.9</v>
+      </c>
+      <c r="W73">
+        <v>-99.9</v>
+      </c>
+      <c r="X73">
+        <v>-2939.6</v>
+      </c>
+      <c r="Y73">
+        <v>8.9</v>
+      </c>
+      <c r="Z73">
+        <v>-106.3</v>
+      </c>
+      <c r="AA73">
+        <v>374.5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A74" s="1">
+        <v>43465</v>
+      </c>
+      <c r="B74" t="s">
+        <v>99</v>
+      </c>
+      <c r="C74">
+        <v>409.9</v>
+      </c>
+      <c r="D74">
+        <v>1507.8</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <v>1507.8</v>
+      </c>
+      <c r="G74">
+        <v>43830.1</v>
+      </c>
+      <c r="H74">
+        <v>132212.5</v>
+      </c>
+      <c r="I74">
+        <v>104496.8</v>
+      </c>
+      <c r="J74">
+        <v>3401.3</v>
+      </c>
+      <c r="K74">
+        <v>11256.3</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>115783.9</v>
+      </c>
+      <c r="O74">
+        <v>121704.2</v>
+      </c>
+      <c r="P74">
+        <v>14657.6</v>
+      </c>
+      <c r="Q74">
+        <v>-491.8</v>
+      </c>
+      <c r="R74">
+        <v>43465</v>
+      </c>
+      <c r="S74">
+        <v>18800</v>
+      </c>
+      <c r="T74">
+        <v>10508.3</v>
+      </c>
+      <c r="U74">
+        <v>4715.6000000000004</v>
+      </c>
+      <c r="V74">
+        <v>459.1</v>
+      </c>
+      <c r="W74">
+        <v>-139.1</v>
+      </c>
+      <c r="X74">
+        <v>77.8</v>
+      </c>
+      <c r="Y74">
+        <v>0</v>
+      </c>
+      <c r="Z74">
+        <v>-2098.8000000000002</v>
+      </c>
+      <c r="AA74">
+        <v>409.9</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A75" s="1">
+        <v>43555</v>
+      </c>
+      <c r="B75" t="s">
+        <v>100</v>
+      </c>
+      <c r="C75">
+        <v>347.1</v>
+      </c>
+      <c r="D75">
+        <v>1480.9</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>1480.9</v>
+      </c>
+      <c r="G75">
+        <v>36738</v>
+      </c>
+      <c r="H75">
+        <v>121869.4</v>
+      </c>
+      <c r="I75">
+        <v>95844.2</v>
+      </c>
+      <c r="J75">
+        <v>3427.5</v>
+      </c>
+      <c r="K75">
+        <v>8923.6</v>
+      </c>
+      <c r="L75">
+        <v>-2229.6</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <v>104824</v>
+      </c>
+      <c r="O75">
+        <v>111253.2</v>
+      </c>
+      <c r="P75">
+        <v>12860.8</v>
+      </c>
+      <c r="Q75">
+        <v>492.5</v>
+      </c>
+      <c r="R75">
+        <v>43555</v>
+      </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <v>10616.2</v>
+      </c>
+      <c r="U75">
+        <v>5111.1000000000004</v>
+      </c>
+      <c r="V75">
+        <v>293.7</v>
+      </c>
+      <c r="W75">
+        <v>-126.7</v>
+      </c>
+      <c r="X75">
+        <v>-11446.4</v>
+      </c>
+      <c r="Y75">
+        <v>509.7</v>
+      </c>
+      <c r="Z75">
+        <v>2505</v>
+      </c>
+      <c r="AA75">
+        <v>347.1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A76" s="1">
+        <v>43646</v>
+      </c>
+      <c r="B76" t="s">
+        <v>101</v>
+      </c>
+      <c r="C76">
+        <v>389.4</v>
+      </c>
+      <c r="D76">
+        <v>1513.1</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>1513.1</v>
+      </c>
+      <c r="G76">
+        <v>40752.5</v>
+      </c>
+      <c r="H76">
+        <v>126550.9</v>
+      </c>
+      <c r="I76">
+        <v>100230.39999999999</v>
+      </c>
+      <c r="J76">
+        <v>3990.8</v>
+      </c>
+      <c r="K76">
+        <v>8826.5</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>109138.3</v>
+      </c>
+      <c r="O76">
+        <v>115745.4</v>
+      </c>
+      <c r="P76">
+        <v>13309.3</v>
+      </c>
+      <c r="Q76">
+        <v>274.2</v>
+      </c>
+      <c r="R76">
+        <v>43646</v>
+      </c>
+      <c r="S76">
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <v>10805.5</v>
+      </c>
+      <c r="U76">
+        <v>5354.3</v>
+      </c>
+      <c r="V76">
+        <v>84.8</v>
+      </c>
+      <c r="W76">
+        <v>-148.4</v>
+      </c>
+      <c r="X76">
+        <v>4431</v>
+      </c>
+      <c r="Y76">
+        <v>441.1</v>
+      </c>
+      <c r="Z76">
+        <v>934.3</v>
+      </c>
+      <c r="AA76">
+        <v>389.4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A77" s="1">
+        <v>43738</v>
+      </c>
+      <c r="B77" t="s">
+        <v>102</v>
+      </c>
+      <c r="C77">
+        <v>384.6</v>
+      </c>
+      <c r="D77">
+        <v>1544.9</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>1544.9</v>
+      </c>
+      <c r="G77">
+        <v>36556.1</v>
+      </c>
+      <c r="H77">
+        <v>124355.8</v>
+      </c>
+      <c r="I77">
+        <v>97264.2</v>
+      </c>
+      <c r="J77">
+        <v>4034.9</v>
+      </c>
+      <c r="K77">
+        <v>8984.6</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>106303.3</v>
+      </c>
+      <c r="O77">
+        <v>113544.5</v>
+      </c>
+      <c r="P77">
+        <v>13571.9</v>
+      </c>
+      <c r="Q77">
+        <v>-310.7</v>
+      </c>
+      <c r="R77">
+        <v>43738</v>
+      </c>
+      <c r="S77">
+        <v>0</v>
+      </c>
+      <c r="T77">
+        <v>10811.3</v>
+      </c>
+      <c r="U77">
+        <v>5047.6000000000004</v>
+      </c>
+      <c r="V77">
+        <v>577.1</v>
+      </c>
+      <c r="W77">
+        <v>-135</v>
+      </c>
+      <c r="X77">
+        <v>-2483.5</v>
+      </c>
+      <c r="Y77">
+        <v>525.5</v>
+      </c>
+      <c r="Z77">
+        <v>-2389.1</v>
+      </c>
+      <c r="AA77">
+        <v>384.6</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A78" s="1">
+        <v>43830</v>
+      </c>
+      <c r="B78" t="s">
+        <v>103</v>
+      </c>
+      <c r="C78">
+        <v>371.1</v>
+      </c>
+      <c r="D78">
+        <v>1548.7</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <v>1548.7</v>
+      </c>
+      <c r="G78">
+        <v>46999.9</v>
+      </c>
+      <c r="H78">
+        <v>136828.4</v>
+      </c>
+      <c r="I78">
+        <v>109120.6</v>
+      </c>
+      <c r="J78">
+        <v>3498.9</v>
+      </c>
+      <c r="K78">
+        <v>9482</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>119128</v>
+      </c>
+      <c r="O78">
+        <v>125737.4</v>
+      </c>
+      <c r="P78">
+        <v>14083.9</v>
+      </c>
+      <c r="Q78">
+        <v>-578.4</v>
+      </c>
+      <c r="R78">
+        <v>43830</v>
+      </c>
+      <c r="S78">
+        <v>19800</v>
+      </c>
+      <c r="T78">
+        <v>11091</v>
+      </c>
+      <c r="U78">
+        <v>4464.2</v>
+      </c>
+      <c r="V78">
+        <v>1636.4</v>
+      </c>
+      <c r="W78">
+        <v>-166</v>
+      </c>
+      <c r="X78">
+        <v>10114.799999999999</v>
+      </c>
+      <c r="Y78">
+        <v>603.1</v>
+      </c>
+      <c r="Z78">
+        <v>-1282</v>
+      </c>
+      <c r="AA78">
+        <v>371.1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A79" s="1">
+        <v>43921</v>
+      </c>
+      <c r="B79" t="s">
+        <v>104</v>
+      </c>
+      <c r="C79">
+        <v>360.6</v>
+      </c>
+      <c r="D79">
+        <v>1526.7</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <v>1526.7</v>
+      </c>
+      <c r="G79">
+        <v>65420.7</v>
+      </c>
+      <c r="H79">
+        <v>161709.20000000001</v>
+      </c>
+      <c r="I79">
+        <v>131491.20000000001</v>
+      </c>
+      <c r="J79">
+        <v>4142.2</v>
+      </c>
+      <c r="K79">
+        <v>11420.4</v>
+      </c>
+      <c r="L79">
+        <v>-1233.5999999999999</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="N79">
+        <v>142938.79999999999</v>
+      </c>
+      <c r="O79">
+        <v>150829.5</v>
+      </c>
+      <c r="P79">
+        <v>15562.6</v>
+      </c>
+      <c r="Q79">
+        <v>1374</v>
+      </c>
+      <c r="R79">
+        <v>43921</v>
+      </c>
+      <c r="S79">
+        <v>0</v>
+      </c>
+      <c r="T79">
+        <v>10879.7</v>
+      </c>
+      <c r="U79">
+        <v>5833.2</v>
+      </c>
+      <c r="V79">
+        <v>-2685.3</v>
+      </c>
+      <c r="W79">
+        <v>-152.9</v>
+      </c>
+      <c r="X79">
+        <v>25708</v>
+      </c>
+      <c r="Y79">
+        <v>0</v>
+      </c>
+      <c r="Z79">
+        <v>-1973.2</v>
+      </c>
+      <c r="AA79">
+        <v>360.6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A80" s="1">
+        <v>44012</v>
+      </c>
+      <c r="B80" t="s">
+        <v>105</v>
+      </c>
+      <c r="C80">
+        <v>313.3</v>
+      </c>
+      <c r="D80">
+        <v>1440.1</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <v>1440.1</v>
+      </c>
+      <c r="G80">
+        <v>56509.5</v>
+      </c>
+      <c r="H80">
+        <v>151432.9</v>
+      </c>
+      <c r="I80">
+        <v>122054.1</v>
+      </c>
+      <c r="J80">
+        <v>5145.3999999999996</v>
+      </c>
+      <c r="K80">
+        <v>8884.2000000000007</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>130965.1</v>
+      </c>
+      <c r="O80">
+        <v>140050.70000000001</v>
+      </c>
+      <c r="P80">
+        <v>14029.6</v>
+      </c>
+      <c r="Q80">
+        <v>-1371</v>
+      </c>
+      <c r="R80">
+        <v>44012</v>
+      </c>
+      <c r="S80">
+        <v>0</v>
+      </c>
+      <c r="T80">
+        <v>11382.2</v>
+      </c>
+      <c r="U80">
+        <v>4462.2</v>
+      </c>
+      <c r="V80">
+        <v>3183.7</v>
+      </c>
+      <c r="W80">
+        <v>-165.1</v>
+      </c>
+      <c r="X80">
+        <v>-11837.4</v>
+      </c>
+      <c r="Y80">
+        <v>0</v>
+      </c>
+      <c r="Z80">
+        <v>336.4</v>
+      </c>
+      <c r="AA80">
+        <v>313.3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A81" s="1">
+        <v>44104</v>
+      </c>
+      <c r="B81" t="s">
+        <v>106</v>
+      </c>
+      <c r="C81">
+        <v>294.5</v>
+      </c>
+      <c r="D81">
+        <v>1484.6</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+      <c r="F81">
+        <v>1484.6</v>
+      </c>
+      <c r="G81">
+        <v>53646.9</v>
+      </c>
+      <c r="H81">
+        <v>152082</v>
+      </c>
+      <c r="I81">
+        <v>122589.1</v>
+      </c>
+      <c r="J81">
+        <v>5129.3</v>
+      </c>
+      <c r="K81">
+        <v>9142.7000000000007</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>131755.70000000001</v>
+      </c>
+      <c r="O81">
+        <v>140502.9</v>
+      </c>
+      <c r="P81">
+        <v>14272</v>
+      </c>
+      <c r="Q81">
+        <v>275.3</v>
+      </c>
+      <c r="R81">
+        <v>44104</v>
+      </c>
+      <c r="S81">
+        <v>0</v>
+      </c>
+      <c r="T81">
+        <v>11579.1</v>
+      </c>
+      <c r="U81">
+        <v>4737.5</v>
+      </c>
+      <c r="V81">
+        <v>-77.900000000000006</v>
+      </c>
+      <c r="W81">
+        <v>-150.5</v>
+      </c>
+      <c r="X81">
+        <v>-838.3</v>
+      </c>
+      <c r="Y81">
+        <v>0</v>
+      </c>
+      <c r="Z81">
+        <v>-3537.8</v>
+      </c>
+      <c r="AA81">
+        <v>294.5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A82" s="1">
+        <v>44196</v>
+      </c>
+      <c r="B82" t="s">
+        <v>107</v>
+      </c>
+      <c r="C82">
         <v>240.9</v>
       </c>
-      <c r="D42">
+      <c r="D82">
         <v>1524.4</v>
       </c>
-      <c r="E42">
-        <v>0</v>
-      </c>
-      <c r="F42">
+      <c r="E82">
+        <v>0</v>
+      </c>
+      <c r="F82">
         <v>1524.4</v>
       </c>
-      <c r="G42">
+      <c r="G82">
         <v>69817</v>
       </c>
-      <c r="H42">
+      <c r="H82">
         <v>170003.9</v>
       </c>
-      <c r="I42">
+      <c r="I82">
         <v>143878</v>
       </c>
-      <c r="J42">
+      <c r="J82">
         <v>4089.7</v>
       </c>
-      <c r="K42">
+      <c r="K82">
         <v>6377.2</v>
       </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
         <v>150876.5</v>
       </c>
-      <c r="O42">
+      <c r="O82">
         <v>158315.6</v>
       </c>
-      <c r="P42">
+      <c r="P82">
         <v>11667.3</v>
       </c>
-      <c r="Q42">
+      <c r="Q82">
         <v>-348</v>
       </c>
-      <c r="R42">
+      <c r="R82">
         <v>44196</v>
       </c>
-      <c r="S42">
+      <c r="S82">
         <v>20900</v>
       </c>
-      <c r="T42">
+      <c r="T82">
         <v>11688.3</v>
       </c>
-      <c r="U42">
+      <c r="U82">
         <v>4389.5</v>
       </c>
-      <c r="V42">
+      <c r="V82">
         <v>1476.3</v>
       </c>
-      <c r="W42">
+      <c r="W82">
         <v>-162</v>
       </c>
-      <c r="X42">
+      <c r="X82">
         <v>14839.6</v>
       </c>
-      <c r="Y42">
+      <c r="Y82">
         <v>601.5</v>
       </c>
-      <c r="Z42">
+      <c r="Z82">
         <v>-780.7</v>
       </c>
-      <c r="AA42">
+      <c r="AA82">
         <v>240.9</v>
       </c>
     </row>
